--- a/origin_files/regression.xlsx
+++ b/origin_files/regression.xlsx
@@ -249,9 +249,6 @@
     <t>2、参数OLS估计的方差不再最小</t>
   </si>
   <si>
-    <t>3、t统计量和F统计量不再服从t分布和F分布</t>
-  </si>
-  <si>
     <t>1、看残差图</t>
   </si>
   <si>
@@ -626,10 +623,6 @@
   </si>
   <si>
     <t>定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>误差项的方差是变化的（与解释变量有关）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -795,12 +788,21 @@
     <t>3、关于DW值（2）：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>误差项的方差是变化的
+（与解释变量有关）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、t统计量和F统计量不再服从t分布和F分布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,15 +856,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1200,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,287 +1218,296 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2239,1369 +2241,2848 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="2647950" cy="952500"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="762000" cy="196850"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Object 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="717550" cy="508000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Object 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="762000" cy="920750"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1047" name="Object 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1720850" cy="939800"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="Object 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="2413000" cy="234950"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Object 25" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="844550" cy="215900"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Object 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1143000" cy="444500"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Object 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="850900" cy="241300"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1052" name="Object 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>171464</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1227121" cy="504000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Object 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="3708400" cy="742950"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Object 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>69851</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1557303" cy="504000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Object 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76203</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1930213" cy="432000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Object 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>38102</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>1543049</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1104897" cy="919713"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1057" name="Object 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="660400" cy="266700"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Object 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="603250" cy="241300"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Object 35" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1784350" cy="285750"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Object 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1117600" cy="241300"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Object 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1174750" cy="228600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Object 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1327150" cy="482600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Object 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>87</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1892300" cy="453588"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Object 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>349250</xdr:colOff>
-          <xdr:row>104</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1143000" cy="273050"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Object 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>692150</xdr:colOff>
-          <xdr:row>106</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1771650" cy="292100"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Object 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>110</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1289050" cy="908050"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Object 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>123</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1860550" cy="508000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Object 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>539750</xdr:colOff>
-          <xdr:row>124</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1295400" cy="241300"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1069" name="Object 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1069"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="3511550" cy="254000"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1070" name="Object 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
-          <xdr:row>127</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="1136650" cy="228600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Object 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
-          <xdr:row>134</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="895350" cy="228600"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1072" name="Object 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2647950" cy="952500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="Object 20" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1044"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="196850"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="Object 21" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1045"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="717550" cy="508000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="Object 22" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1046"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="920750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="Object 23" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1047"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1720850" cy="939800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="Object 24" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1048"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2413000" cy="234950"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1049" name="Object 25" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1049"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="844550" cy="215900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="Object 26" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1050"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="444500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1051" name="Object 27" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1051"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="850900" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="Object 28" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1052"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171464</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1227121" cy="504000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="Object 29" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1053"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3708400" cy="742950"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Object 30" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1054"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1557303" cy="504000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="Object 31" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1055"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76203</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930213" cy="432000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="Object 32" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1056"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1543049</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1104897" cy="919713"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="Object 33" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1057"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="660400" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="Object 34" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1058"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603250" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="Object 35" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1059"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1784350" cy="285750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="Object 36" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1060"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1117600" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="Object 37" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1061"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1174750" cy="228600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="Object 38" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1062"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1327150" cy="482600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="Object 39" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1063"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1892300" cy="453588"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="Object 40" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1064"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="273050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="Object 41" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1065"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1771650" cy="292100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="Object 42" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1066"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1289050" cy="908050"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="Object 43" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1067"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1860550" cy="508000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="Object 44" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1068"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="241300"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="Object 45" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1069"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3511550" cy="254000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="Object 46" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1070"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1136650" cy="228600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="Object 47" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1071"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="895350" cy="228600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="Object 48" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1072"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2292350" y="11925300"/>
+          <a:ext cx="2647950" cy="946150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2247900" y="13061950"/>
+          <a:ext cx="762000" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2235200" y="13544550"/>
+          <a:ext cx="717550" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2247900" y="15271750"/>
+          <a:ext cx="762000" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2266950" y="16338550"/>
+          <a:ext cx="1720850" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>378760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2286000" y="17506949"/>
+          <a:ext cx="2933700" cy="270811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2228850" y="18002250"/>
+          <a:ext cx="844550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4857750" y="17907000"/>
+          <a:ext cx="1143000" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2216150" y="18510250"/>
+          <a:ext cx="850900" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4997450" y="20732750"/>
+          <a:ext cx="1225550" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4019550" y="19640550"/>
+          <a:ext cx="3708400" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>603250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4895850" y="21418550"/>
+          <a:ext cx="1555750" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4902200" y="22212300"/>
+          <a:ext cx="1930400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10185400" y="21316950"/>
+          <a:ext cx="1104900" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5854700" y="38849300"/>
+          <a:ext cx="660400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1670050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5892800" y="39801800"/>
+          <a:ext cx="603250" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>336550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="40176450"/>
+          <a:ext cx="1784350" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="40614600"/>
+          <a:ext cx="1117600" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5759450" y="40951150"/>
+          <a:ext cx="1174750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7112000" y="41484550"/>
+          <a:ext cx="1327150" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7048500" y="42195750"/>
+          <a:ext cx="1892300" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5175250" y="46405800"/>
+          <a:ext cx="1143000" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5518150" y="46983650"/>
+          <a:ext cx="1771650" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5226050" y="47936150"/>
+          <a:ext cx="1289050" cy="908050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2127250</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>641350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5092700" y="51238150"/>
+          <a:ext cx="1860550" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1835150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5365750" y="51866800"/>
+          <a:ext cx="1295400" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5854700" y="52508150"/>
+          <a:ext cx="3511550" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5232400" y="52876450"/>
+          <a:ext cx="1136650" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2266950" y="54673500"/>
+          <a:ext cx="895350" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4026,297 +5507,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="31.08984375" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+    <row r="1" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+    <row r="9" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="38" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+    <row r="21" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+    <row r="26" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
     </row>
     <row r="27" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="88" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4325,732 +5806,735 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+    <row r="33" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
     </row>
     <row r="34" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="1:9" ht="56" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B36" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+      <c r="A41" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="77"/>
-    </row>
-    <row r="36" spans="1:9" ht="56" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
-    </row>
-    <row r="37" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-    </row>
-    <row r="38" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
-    </row>
-    <row r="39" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-    </row>
-    <row r="40" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="77"/>
-    </row>
-    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="83" t="s">
+      <c r="C42" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
-    </row>
-    <row r="42" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="89" t="s">
+      <c r="C43" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-    </row>
-    <row r="43" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="83" t="s">
+      <c r="E43" s="38"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="85"/>
+      <c r="B44" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="89" t="s">
+      <c r="C44" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="77"/>
-    </row>
-    <row r="44" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="88"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
     </row>
     <row r="47" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="71"/>
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="94" t="s">
+      <c r="A50" s="70"/>
+      <c r="B50" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="12"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="54" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="95" t="s">
+      <c r="A51" s="70"/>
+      <c r="B51" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="12"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="95" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="12"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="12"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="95" t="s">
+      <c r="A55" s="70"/>
+      <c r="B55" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="12"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="95" t="s">
+      <c r="A56" s="70"/>
+      <c r="B56" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="12"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="216" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="12"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="95" t="s">
+      <c r="A58" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="12"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="95" t="s">
+      <c r="A59" s="70"/>
+      <c r="B59" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="12"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
-      <c r="B60" s="97" t="s">
+      <c r="A60" s="72"/>
+      <c r="B60" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="57"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
     </row>
     <row r="63" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="12"/>
+      <c r="A63" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="10" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="77"/>
+      <c r="B65" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="10" t="s">
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
+    </row>
+    <row r="66" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="78"/>
+      <c r="B66" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="12"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
     </row>
     <row r="67" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="12"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
     </row>
     <row r="68" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="77"/>
+      <c r="B68" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="12"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
+    </row>
+    <row r="69" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="78"/>
+      <c r="B69" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="94"/>
     </row>
     <row r="70" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="94"/>
+    </row>
+    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="62" t="s">
+      <c r="C71" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="D71" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="94"/>
+    </row>
+    <row r="72" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="12"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="66"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="59" t="s">
+      <c r="B73" s="98"/>
+      <c r="C73" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="12"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="66"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="12"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="94"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="66"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="12"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="94"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="66"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="12"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="66"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="12"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="94"/>
     </row>
     <row r="78" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="66"/>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="12"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="94"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="66"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="12"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="94"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="66"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="10" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="94"/>
+    </row>
+    <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A81" s="66"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="10" t="s">
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="94"/>
+    </row>
+    <row r="82" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="66"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="12"/>
+      <c r="E82" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" s="93"/>
+      <c r="G82" s="94"/>
     </row>
     <row r="83" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="12"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
     </row>
     <row r="84" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="12"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="94"/>
     </row>
     <row r="85" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="10" t="s">
+      <c r="B85" s="101"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="F85" s="93"/>
+      <c r="G85" s="94"/>
+    </row>
+    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A86" s="68"/>
+      <c r="B86" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="D86" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="12"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="94"/>
     </row>
     <row r="87" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="C87" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="12"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="94"/>
     </row>
     <row r="88" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="66"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="12"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="94"/>
     </row>
     <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="66"/>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="94"/>
+    </row>
+    <row r="90" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="67"/>
+      <c r="B90" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="71"/>
-      <c r="B90" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="14"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="104"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -5070,493 +6554,493 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="68" t="s">
+    <row r="93" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="81"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="70"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="12"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="12"/>
+      <c r="B95" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="66"/>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="12"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="12"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="68"/>
+      <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="12"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="12"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="66"/>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="68"/>
+      <c r="B102" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="12"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="12"/>
+      <c r="B103" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="66"/>
       <c r="B104" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="12"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="66"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="12"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="66"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="12"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="66"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="12"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="66"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="12"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="66"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="12"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="66"/>
-      <c r="B110" s="60"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="66"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="12"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="66"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="E112" s="26" t="s">
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F112" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G112" s="12"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="66"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="26">
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="25">
         <v>4</v>
       </c>
-      <c r="F113" s="26">
+      <c r="F113" s="25">
         <v>-1</v>
       </c>
-      <c r="G113" s="12"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="66"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="26" t="s">
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F114" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="12"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="66"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="26">
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="25">
         <v>2</v>
       </c>
-      <c r="F115" s="26">
+      <c r="F115" s="25">
         <v>0</v>
       </c>
-      <c r="G115" s="12"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="66"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="26" t="s">
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F116" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" s="12"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="66"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="26">
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="25">
         <v>2</v>
       </c>
-      <c r="F117" s="26">
+      <c r="F117" s="25">
         <v>1</v>
       </c>
-      <c r="G117" s="12"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="66"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" s="12"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="66"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="10" t="s">
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F119" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" s="12"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="66"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="10" t="s">
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F120" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G120" s="12"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="66"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="10" t="s">
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F121" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" s="12"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="66"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G122" s="12"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="66"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="100"/>
-      <c r="E123" s="10" t="s">
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F123" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" s="12"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="66"/>
       <c r="B124" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="12"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="66"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="12"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="66"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="12"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="66"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="12"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="66"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="10" t="s">
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="68"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="61"/>
-      <c r="D129" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="12"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="66"/>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="67"/>
+      <c r="B132" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="71"/>
-      <c r="B132" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="14"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
@@ -5567,66 +7051,66 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7" ht="45.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="68" t="s">
+    <row r="134" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="81"/>
+    </row>
+    <row r="135" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B134" s="69"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="70"/>
-    </row>
-    <row r="135" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="28" t="s">
+      <c r="C136" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="11"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="27"/>
+      <c r="B137" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="11"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="36"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="B137" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="14"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
@@ -5675,10 +7159,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B104:B123"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="C110:C123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -5691,33 +7202,6 @@
     <mergeCell ref="A95:A99"/>
     <mergeCell ref="A100:A102"/>
     <mergeCell ref="A103:A129"/>
-    <mergeCell ref="B104:B123"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="C110:C123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6095,13 +7579,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,44 +7593,44 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,41 +7741,41 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/origin_files/regression.xlsx
+++ b/origin_files/regression.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="214">
   <si>
     <t>假设：</t>
   </si>
@@ -78,11 +78,6 @@
   </si>
   <si>
     <t>DW检验</t>
-  </si>
-  <si>
-    <t>=2无自相关
-0~2正自相关
-2~4负自相关</t>
   </si>
   <si>
     <t>拟合优度</t>
@@ -477,9 +472,6 @@
     <t>广义差分法</t>
   </si>
   <si>
-    <t>德宾两步法</t>
-  </si>
-  <si>
     <t>一般性检验</t>
   </si>
   <si>
@@ -795,6 +787,87 @@
   </si>
   <si>
     <t>3、t统计量和F统计量不再服从t分布和F分布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元回归性质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、线性变换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、无偏估计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 方差</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t检验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方程检验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数检验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、如果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏R^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无自相关
+0~2正自相关
+2~4负自相关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>德宾两步法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征根判定法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有特征根接近0，说明存在多重共线性</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +990,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1184,6 +1257,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1193,7 +1305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,9 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1371,24 +1480,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,6 +1570,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,22 +1606,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,68 +1621,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2044,9 +2186,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>965200</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>647700</xdr:rowOff>
+          <xdr:rowOff>654050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2201,8 +2343,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>279400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2245,7 +2387,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2647950" cy="952500"/>
@@ -2287,7 +2429,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="196850"/>
@@ -2329,7 +2471,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="717550" cy="508000"/>
@@ -2371,7 +2513,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762000" cy="920750"/>
@@ -2413,7 +2555,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1720850" cy="939800"/>
@@ -2455,7 +2597,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2413000" cy="234950"/>
@@ -2497,7 +2639,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="844550" cy="215900"/>
@@ -2539,7 +2681,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143000" cy="444500"/>
@@ -2581,7 +2723,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="850900" cy="241300"/>
@@ -2623,7 +2765,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1227121" cy="504000"/>
@@ -2665,7 +2807,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3708400" cy="742950"/>
@@ -2707,7 +2849,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>69851</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1557303" cy="504000"/>
@@ -2749,7 +2891,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76203</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930213" cy="432000"/>
@@ -2791,7 +2933,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1543049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1104897" cy="919713"/>
@@ -2833,7 +2975,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="660400" cy="266700"/>
@@ -2875,7 +3017,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="603250" cy="241300"/>
@@ -2917,7 +3059,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1784350" cy="285750"/>
@@ -2959,7 +3101,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1117600" cy="241300"/>
@@ -3001,7 +3143,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1174750" cy="228600"/>
@@ -3043,7 +3185,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1327150" cy="482600"/>
@@ -3085,7 +3227,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1892300" cy="453588"/>
@@ -3127,7 +3269,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143000" cy="273050"/>
@@ -3169,7 +3311,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1771650" cy="292100"/>
@@ -3211,7 +3353,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1289050" cy="908050"/>
@@ -3253,7 +3395,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1860550" cy="508000"/>
@@ -3295,7 +3437,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1295400" cy="241300"/>
@@ -3337,7 +3479,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3511550" cy="254000"/>
@@ -3379,7 +3521,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1136650" cy="228600"/>
@@ -3421,7 +3563,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="895350" cy="228600"/>
@@ -3459,1630 +3601,1995 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>965200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2292350" y="11925300"/>
-          <a:ext cx="2647950" cy="946150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2247900" y="13061950"/>
-          <a:ext cx="762000" cy="196850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2235200" y="13544550"/>
-          <a:ext cx="717550" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>971550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2247900" y="15271750"/>
-          <a:ext cx="762000" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>990600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2266950" y="16338550"/>
-          <a:ext cx="1720850" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>378760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2286000" y="17506949"/>
-          <a:ext cx="2933700" cy="270811"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>374650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2228850" y="18002250"/>
-          <a:ext cx="844550" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4857750" y="17907000"/>
-          <a:ext cx="1143000" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2216150" y="18510250"/>
-          <a:ext cx="850900" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4997450" y="20732750"/>
-          <a:ext cx="1225550" cy="501650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4019550" y="19640550"/>
-          <a:ext cx="3708400" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1625600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>603250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4895850" y="21418550"/>
-          <a:ext cx="1555750" cy="501650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2006600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>584200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4902200" y="22212300"/>
-          <a:ext cx="1930400" cy="431800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1543050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10185400" y="21316950"/>
-          <a:ext cx="1104900" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5854700" y="38849300"/>
-          <a:ext cx="660400" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1670050</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5892800" y="39801800"/>
-          <a:ext cx="603250" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7048500" y="40176450"/>
-          <a:ext cx="1784350" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7048500" y="40614600"/>
-          <a:ext cx="1117600" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5759450" y="40951150"/>
-          <a:ext cx="1174750" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>546100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7112000" y="41484550"/>
-          <a:ext cx="1327150" cy="482600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7048500" y="42195750"/>
-          <a:ext cx="1892300" cy="450850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1492250</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>311150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5175250" y="46405800"/>
-          <a:ext cx="1143000" cy="273050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5518150" y="46983650"/>
-          <a:ext cx="1771650" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1689100</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>965200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5226050" y="47936150"/>
-          <a:ext cx="1289050" cy="908050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2127250</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>641350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5092700" y="51238150"/>
-          <a:ext cx="1860550" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1835150</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 45"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5365750" y="51866800"/>
-          <a:ext cx="1295400" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5854700" y="52508150"/>
-          <a:ext cx="3511550" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>298450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 47"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5232400" y="52876450"/>
-          <a:ext cx="1136650" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>273050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 48"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2266950" y="54673500"/>
-          <a:ext cx="895350" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>82550</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>488950</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>1035050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Object 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>215900</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>977900</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Object 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>552450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Object 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1181100</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>990600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Object 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>222250</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1943100</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>1016000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Object 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>393700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Object 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>196850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1606550</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>406400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Object 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>196850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1689100</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Object 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>603250</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1454150</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Object 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1003300</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>539750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Object 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>927100</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>844550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Object 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>184150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1568450</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Object 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>44450</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2076450</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>590550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Object 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>673100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>431800</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>241300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Object 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1111250</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1771650</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Object 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1123950</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1727200</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>546100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Object 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>908050</xdr:colOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>711200</xdr:colOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Object 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>717550</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1835150</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>317500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Object 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>965200</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2139950</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>260350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Object 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>88900</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1073150</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>552450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Object 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>69849</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>682050</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>673100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="Object 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1289050</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>317500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="Object 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>730250</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>298450</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>355600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="Object 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>234950</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1504950</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>958850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Object 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>132</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2165350</xdr:colOff>
+          <xdr:row>132</xdr:row>
+          <xdr:rowOff>622300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Object 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>577850</xdr:colOff>
+          <xdr:row>133</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1873250</xdr:colOff>
+          <xdr:row>133</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Object 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>984250</xdr:colOff>
+          <xdr:row>135</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>431800</xdr:colOff>
+          <xdr:row>135</xdr:row>
+          <xdr:rowOff>292100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Object 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>349250</xdr:colOff>
+          <xdr:row>136</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1485900</xdr:colOff>
+          <xdr:row>136</xdr:row>
+          <xdr:rowOff>298450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="Object 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>144</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1022350</xdr:colOff>
+          <xdr:row>144</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Object 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>222250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1397000</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>469900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Object 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>927100</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>349250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Object 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>127000</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1377950</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Object 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>571499</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>184150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2137832</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Object 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>69850</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1555870</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>571500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Object 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>69849</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>813058</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>641350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Object 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>44449</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>57149</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1974514</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>939800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Object 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50799</xdr:colOff>
+          <xdr:row>141</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>547593</xdr:colOff>
+          <xdr:row>141</xdr:row>
+          <xdr:rowOff>666750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Object 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5505,10 +6012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5522,20 +6029,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
+      <c r="A1" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -5544,7 +6051,7 @@
     <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -5553,7 +6060,7 @@
     <row r="4" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -5562,16 +6069,16 @@
     <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5586,13 +6093,13 @@
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -5610,7 +6117,7 @@
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="103" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -5627,7 +6134,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
@@ -5638,7 +6145,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="103" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="14"/>
@@ -5649,7 +6156,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -5658,7 +6165,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="103" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5669,7 +6176,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>15</v>
@@ -5677,39 +6184,46 @@
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:6" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>18</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-    </row>
-    <row r="22" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
@@ -5718,34 +6232,35 @@
       <c r="D22" s="14"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+    </row>
+    <row r="26" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -5755,7 +6270,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
@@ -5765,388 +6280,378 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+    </row>
+    <row r="33" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="102"/>
+    </row>
+    <row r="40" spans="1:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-    </row>
-    <row r="34" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="F41" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="1:9" ht="56" x14ac:dyDescent="0.25">
+      <c r="A42" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B42" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="37"/>
+      <c r="G42" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="106"/>
+      <c r="B43" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="107"/>
+      <c r="B44" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="72"/>
+      <c r="B48" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
+      <c r="B50" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="1:9" ht="56" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
+      <c r="C50" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72"/>
+      <c r="B51" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="73"/>
+      <c r="B52" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.25">
-      <c r="A41" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
-      <c r="B44" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="50"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
-    </row>
-    <row r="47" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
+      <c r="B55" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" ht="54" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="95"/>
+      <c r="B56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="216" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+    <row r="57" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>50</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="94"/>
+      <c r="B58" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -6154,10 +6659,10 @@
       <c r="F58" s="9"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="55" t="s">
-        <v>51</v>
+    <row r="59" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A59" s="94"/>
+      <c r="B59" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -6165,520 +6670,520 @@
       <c r="F59" s="9"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="72"/>
-      <c r="B60" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="75"/>
-    </row>
-    <row r="63" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
+      <c r="B60" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="114"/>
+      <c r="B62" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A64" s="94"/>
+      <c r="B64" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="93" t="s">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A65" s="94"/>
+      <c r="B65" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="175.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="95"/>
+      <c r="B66" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="94"/>
+      <c r="B68" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="96"/>
+      <c r="B69" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
+    </row>
+    <row r="72" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="89"/>
+      <c r="B74" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="93" t="s">
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="60"/>
+    </row>
+    <row r="75" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
+      <c r="B75" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="94"/>
-    </row>
-    <row r="66" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="93" t="s">
+      <c r="C75" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
+    </row>
+    <row r="76" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="94"/>
-    </row>
-    <row r="67" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="93" t="s">
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="60"/>
+    </row>
+    <row r="77" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="89"/>
+      <c r="B77" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="94"/>
-    </row>
-    <row r="68" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-      <c r="B68" s="93" t="s">
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="60"/>
+    </row>
+    <row r="78" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="60"/>
+    </row>
+    <row r="79" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="94"/>
-    </row>
-    <row r="69" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="94"/>
-    </row>
-    <row r="70" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="93" t="s">
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
+    </row>
+    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="85"/>
+      <c r="B80" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="93"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="94"/>
-    </row>
-    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="96" t="s">
+      <c r="C80" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="D80" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="60"/>
+    </row>
+    <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A81" s="85"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="94"/>
-    </row>
-    <row r="72" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="93" t="s">
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="85"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="97" t="s">
+      <c r="D82" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="85"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="94"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="93" t="s">
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="85"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="94"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="93" t="s">
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="60"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="85"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="94"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="93" t="s">
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="85"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="94"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="101"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="93" t="s">
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="60"/>
+    </row>
+    <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="85"/>
+      <c r="B87" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="94"/>
-    </row>
-    <row r="78" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="96" t="s">
+      <c r="C87" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="93" t="s">
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="85"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="94"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="93" t="s">
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="60"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="85"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="94"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="93" t="s">
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="60"/>
+    </row>
+    <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A90" s="85"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="94"/>
-    </row>
-    <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="93" t="s">
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="60"/>
+    </row>
+    <row r="91" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="85"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="94"/>
-    </row>
-    <row r="82" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="93" t="s">
+      <c r="E91" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="59"/>
+      <c r="G91" s="60"/>
+    </row>
+    <row r="92" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="85"/>
+      <c r="B92" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E82" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F82" s="93"/>
-      <c r="G82" s="94"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="96" t="s">
+      <c r="C92" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="93" t="s">
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="60"/>
+    </row>
+    <row r="93" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="85"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="94"/>
-    </row>
-    <row r="84" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="93" t="s">
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
+    </row>
+    <row r="94" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="85"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="94"/>
-    </row>
-    <row r="85" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="101"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="93" t="s">
+      <c r="E94" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E85" s="93" t="s">
+      <c r="F94" s="59"/>
+      <c r="G94" s="60"/>
+    </row>
+    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A95" s="87"/>
+      <c r="B95" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="93"/>
-      <c r="G85" s="94"/>
-    </row>
-    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="93" t="s">
+      <c r="C95" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="102" t="s">
+      <c r="D95" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="93" t="s">
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="60"/>
+    </row>
+    <row r="96" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="94"/>
-    </row>
-    <row r="87" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
+      <c r="B96" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="96" t="s">
+      <c r="C96" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="93" t="s">
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="60"/>
+    </row>
+    <row r="97" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="85"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="94"/>
-    </row>
-    <row r="88" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="101"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="93" t="s">
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
+    </row>
+    <row r="98" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="85"/>
+      <c r="B98" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="94"/>
-    </row>
-    <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="93" t="s">
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="60"/>
+    </row>
+    <row r="99" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="86"/>
+      <c r="B99" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="93"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="94"/>
-    </row>
-    <row r="90" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="67"/>
-      <c r="B90" s="103" t="s">
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="64"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="104"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="79" t="s">
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="67"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="80"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="81"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
-      <c r="B96" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
-      <c r="B99" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
-      <c r="B101" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
-      <c r="B102" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -6686,469 +7191,483 @@
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
-      <c r="B104" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A104" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="9" t="s">
-        <v>109</v>
-      </c>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="85"/>
+      <c r="B105" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="109"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="66"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A106" s="85"/>
+      <c r="B106" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="109"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="9" t="s">
-        <v>111</v>
-      </c>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="85"/>
+      <c r="B107" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="A108" s="87"/>
+      <c r="B108" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="A109" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="A110" s="85"/>
+      <c r="B110" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="87"/>
+      <c r="B111" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="66"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="25" t="s">
+      <c r="A112" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="85"/>
+      <c r="B113" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="85"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="85"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="85"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="85"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="85"/>
+      <c r="B118" s="82"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="85"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="85"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="85"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="26" t="s">
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="85"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="25">
+        <v>4</v>
+      </c>
+      <c r="F122" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="85"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="66"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="25">
-        <v>4</v>
-      </c>
-      <c r="F113" s="25">
-        <v>-1</v>
-      </c>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="25" t="s">
+      <c r="F123" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="85"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="25">
+        <v>2</v>
+      </c>
+      <c r="F124" s="25">
+        <v>0</v>
+      </c>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="85"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="25">
+      <c r="F125" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="85"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="25">
         <v>2</v>
       </c>
-      <c r="F115" s="25">
-        <v>0</v>
-      </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F116" s="25" t="s">
+      <c r="F126" s="25">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="85"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="25">
-        <v>2</v>
-      </c>
-      <c r="F117" s="25">
-        <v>1</v>
-      </c>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="85"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="66"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="9" t="s">
+      <c r="F128" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="85"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="66"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="85"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="9" t="s">
+      <c r="F130" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="85"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="9" t="s">
+      <c r="F131" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="85"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F122" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="66"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="63"/>
-      <c r="E123" s="9" t="s">
+      <c r="F132" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="85"/>
+      <c r="B133" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="66"/>
-      <c r="B124" s="59" t="s">
+      <c r="C133" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="85"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="85"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="82"/>
+      <c r="D135" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="11"/>
-    </row>
-    <row r="125" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="66"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="11"/>
-    </row>
-    <row r="128" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="11"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B130" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="11"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
-      <c r="B131" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="11"/>
-    </row>
-    <row r="132" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="67"/>
-      <c r="B132" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="13"/>
-    </row>
-    <row r="133" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B134" s="80"/>
-      <c r="C134" s="80"/>
-      <c r="D134" s="80"/>
-      <c r="E134" s="80"/>
-      <c r="F134" s="80"/>
-      <c r="G134" s="81"/>
-    </row>
-    <row r="135" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D136" s="9"/>
+    <row r="136" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="85"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="82"/>
+      <c r="D136" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="9"/>
+    <row r="137" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="85"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="36"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="53" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="87"/>
+      <c r="B138" s="83"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="A140" s="85"/>
+      <c r="B140" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="85"/>
+      <c r="B141" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="111"/>
+      <c r="D141" s="111"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="111"/>
+      <c r="G141" s="112"/>
+    </row>
+    <row r="142" spans="1:7" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="86"/>
+      <c r="B142" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7157,51 +7676,160 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
+    <row r="144" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="67"/>
+    </row>
+    <row r="145" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="11"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="11"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="27"/>
+      <c r="B147" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="11"/>
+    </row>
+    <row r="148" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="35"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A33:I33"/>
+  <mergeCells count="46">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A79:A95"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B104:B123"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="C110:C123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A134:G134"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A129"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A138"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7472,9 +8100,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>965200</xdr:colOff>
+                <xdr:colOff>952500</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>647700</xdr:rowOff>
+                <xdr:rowOff>654050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7548,8 +8176,8 @@
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>812800</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>279400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7557,6 +8185,931 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject progId="Equation.KSEE3" shapeId="1043" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="2" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>82550</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>488950</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>1035050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1044" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="3" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>977900</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>349250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1045" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="4" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>889000</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>552450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1046" r:id="rId36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="5" r:id="rId38">
+          <objectPr defaultSize="0" altText="" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>990600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1047" r:id="rId38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="6" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>222250</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1943100</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>1016000</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1048" r:id="rId40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="7" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>393700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1049" r:id="rId42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="8" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>196850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1606550</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>406400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1050" r:id="rId44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="9" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>196850</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1689100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1051" r:id="rId46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="10" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>603250</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1454150</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1052" r:id="rId48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="11" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1003300</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>539750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1053" r:id="rId50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="12" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>63500</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>927100</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>844550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1054" r:id="rId52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="13" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>184150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1568450</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>387350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1055" r:id="rId54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="14" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId57">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>44450</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>590550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1056" r:id="rId56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="15" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId59">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>673100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>431800</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1057" r:id="rId58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="16" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId61">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1111250</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1771650</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1058" r:id="rId60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="17" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId63">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1727200</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1059" r:id="rId62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="18" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId65">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>908050</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>711200</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1060" r:id="rId64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="19" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId67">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>717550</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1835150</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>317500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1061" r:id="rId66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="20" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId69">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>965200</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2139950</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>260350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1062" r:id="rId68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="21" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId71">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1073150</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1063" r:id="rId70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="22" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId73">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>679450</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1064" r:id="rId72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="23" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId75">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1289050</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1065" r:id="rId74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="24" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId77">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>730250</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>298450</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>355600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1066" r:id="rId76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="25" r:id="rId78">
+          <objectPr defaultSize="0" altText="" r:id="rId79">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>120650</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1504950</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1067" r:id="rId78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="26" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId81">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>132</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2165350</xdr:colOff>
+                <xdr:row>133</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1068" r:id="rId80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="27" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId83">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>577850</xdr:colOff>
+                <xdr:row>133</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1873250</xdr:colOff>
+                <xdr:row>133</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1069" r:id="rId82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="28" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId85">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>984250</xdr:colOff>
+                <xdr:row>135</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>431800</xdr:colOff>
+                <xdr:row>135</xdr:row>
+                <xdr:rowOff>292100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1070" r:id="rId84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.KSEE3" shapeId="29" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" altText="" r:id="rId87">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>349250</xdr:colOff>
+                <xdr:row>136</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:row>136</xdr:row>
+                <xdr:rowOff>298450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.KSEE3" shapeId="1071" r:id="rId86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="30" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>127000</xdr:colOff>
+                <xdr:row>144</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1022350</xdr:colOff>
+                <xdr:row>144</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1072" r:id="rId88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1073" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>222250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1397000</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>469900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1073" r:id="rId90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1074" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>927100</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>349250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1074" r:id="rId92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1075" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>127000</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1377950</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1075" r:id="rId94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1076" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>184150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2139950</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1076" r:id="rId96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1078" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1555750</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>571500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1078" r:id="rId98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1079" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>812800</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>641350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1079" r:id="rId100"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1080" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>44450</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1974850</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1080" r:id="rId102"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1082" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>50800</xdr:colOff>
+                <xdr:row>141</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>546100</xdr:colOff>
+                <xdr:row>142</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1082" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7579,13 +9132,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7593,44 +9146,44 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7741,41 +9294,41 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>152</v>
+      <c r="A4" s="104" t="s">
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/origin_files/regression.xlsx
+++ b/origin_files/regression.xlsx
@@ -1501,6 +1501,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,36 +1537,105 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,107 +1645,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4185,8 +4185,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1568450</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>571500</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>387350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4289,8 +4289,8 @@
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4341,8 +4341,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1771650</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4386,15 +4386,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1123950</xdr:colOff>
+          <xdr:colOff>1022350</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1727200</xdr:colOff>
+          <xdr:colOff>1987550</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>546100</xdr:rowOff>
+          <xdr:rowOff>510653</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4601,8 +4601,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1073150</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4646,15 +4646,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>69849</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>96</xdr:row>
           <xdr:rowOff>82550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>682050</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>673100</xdr:rowOff>
+          <xdr:colOff>679450</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4705,8 +4705,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1289050</xdr:colOff>
-          <xdr:row>113</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
+          <xdr:row>114</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4809,8 +4809,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1504950</xdr:colOff>
-          <xdr:row>119</xdr:row>
-          <xdr:rowOff>958850</xdr:rowOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4861,8 +4861,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2165350</xdr:colOff>
-          <xdr:row>132</xdr:row>
-          <xdr:rowOff>622300</xdr:rowOff>
+          <xdr:row>133</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5270,13 +5270,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>571499</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>2137832</xdr:colOff>
+          <xdr:colOff>2139950</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
@@ -5306,23 +5306,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5341,7 +5328,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1555870</xdr:colOff>
+          <xdr:colOff>1555750</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
@@ -5371,23 +5358,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5400,13 +5374,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>69849</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>813058</xdr:colOff>
+          <xdr:colOff>812800</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>641350</xdr:rowOff>
         </xdr:to>
@@ -5436,23 +5410,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5465,15 +5426,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>44449</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>57149</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1974514</xdr:colOff>
+          <xdr:colOff>1987550</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>939800</xdr:rowOff>
+          <xdr:rowOff>1066800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5501,23 +5462,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5530,15 +5478,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>50799</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>141</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>547593</xdr:colOff>
-          <xdr:row>141</xdr:row>
-          <xdr:rowOff>666750</xdr:rowOff>
+          <xdr:colOff>546100</xdr:colOff>
+          <xdr:row>142</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5566,23 +5514,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6014,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6029,13 +5964,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -6093,13 +6028,13 @@
     </row>
     <row r="8" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -6117,7 +6052,7 @@
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -6134,7 +6069,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
@@ -6145,7 +6080,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="82" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="14"/>
@@ -6156,7 +6091,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6165,7 +6100,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -6176,7 +6111,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>15</v>
@@ -6185,13 +6120,13 @@
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="65" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6206,13 +6141,13 @@
     </row>
     <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -6241,14 +6176,14 @@
     </row>
     <row r="24" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
     </row>
     <row r="26" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -6311,14 +6246,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
     </row>
     <row r="33" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -6378,17 +6313,17 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="102"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
@@ -6425,7 +6360,7 @@
       <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9" ht="56" x14ac:dyDescent="0.25">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="83" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6444,7 +6379,7 @@
       <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="37" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6394,7 @@
       <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="37" t="s">
         <v>208</v>
       </c>
@@ -6506,7 +6441,7 @@
       <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="73" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="42" t="s">
@@ -6523,7 +6458,7 @@
       <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="42" t="s">
         <v>167</v>
       </c>
@@ -6536,7 +6471,7 @@
       <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="73" t="s">
         <v>169</v>
       </c>
       <c r="B49" s="44" t="s">
@@ -6553,7 +6488,7 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="44" t="s">
         <v>173</v>
       </c>
@@ -6568,7 +6503,7 @@
       <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="44" t="s">
         <v>177</v>
       </c>
@@ -6585,7 +6520,7 @@
       <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="73"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="45" t="s">
         <v>179</v>
       </c>
@@ -6601,18 +6536,18 @@
     </row>
     <row r="53" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
     </row>
     <row r="55" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6625,7 +6560,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="9" t="s">
         <v>36</v>
       </c>
@@ -6636,7 +6571,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="77" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -6649,7 +6584,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="53" t="s">
         <v>39</v>
       </c>
@@ -6660,7 +6595,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="54" t="s">
         <v>40</v>
       </c>
@@ -6671,7 +6606,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="54" t="s">
         <v>41</v>
       </c>
@@ -6697,7 +6632,7 @@
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="23" t="s">
         <v>212</v>
       </c>
@@ -6710,7 +6645,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="77" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="54" t="s">
@@ -6723,7 +6658,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="54" t="s">
         <v>47</v>
       </c>
@@ -6734,7 +6669,7 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="54" t="s">
         <v>48</v>
       </c>
@@ -6745,7 +6680,7 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="175.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="55" t="s">
         <v>149</v>
       </c>
@@ -6756,7 +6691,7 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="77" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="54" t="s">
@@ -6769,7 +6704,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="54" t="s">
         <v>50</v>
       </c>
@@ -6780,7 +6715,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="96"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="56" t="s">
         <v>51</v>
       </c>
@@ -6792,15 +6727,15 @@
     </row>
     <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="99"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
     </row>
     <row r="72" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
@@ -6816,7 +6751,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="91" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -6829,7 +6764,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="59" t="s">
         <v>55</v>
       </c>
@@ -6842,7 +6777,7 @@
       <c r="G74" s="60"/>
     </row>
     <row r="75" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="59" t="s">
         <v>57</v>
       </c>
@@ -6855,7 +6790,7 @@
       <c r="G75" s="60"/>
     </row>
     <row r="76" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="88" t="s">
+      <c r="A76" s="91" t="s">
         <v>156</v>
       </c>
       <c r="B76" s="59" t="s">
@@ -6868,7 +6803,7 @@
       <c r="G76" s="60"/>
     </row>
     <row r="77" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="59" t="s">
         <v>60</v>
       </c>
@@ -6879,7 +6814,7 @@
       <c r="G77" s="60"/>
     </row>
     <row r="78" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="93"/>
       <c r="B78" s="61" t="s">
         <v>199</v>
       </c>
@@ -6890,7 +6825,7 @@
       <c r="G78" s="60"/>
     </row>
     <row r="79" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="59" t="s">
@@ -6903,11 +6838,11 @@
       <c r="G79" s="60"/>
     </row>
     <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
-      <c r="B80" s="74" t="s">
+      <c r="A80" s="98"/>
+      <c r="B80" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="103" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="59" t="s">
@@ -6918,9 +6853,9 @@
       <c r="G80" s="60"/>
     </row>
     <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="77"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="104"/>
       <c r="D81" s="59" t="s">
         <v>65</v>
       </c>
@@ -6929,9 +6864,9 @@
       <c r="G81" s="60"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="76" t="s">
+      <c r="A82" s="98"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="59" t="s">
@@ -6942,9 +6877,9 @@
       <c r="G82" s="60"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="92"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="59" t="s">
         <v>68</v>
       </c>
@@ -6953,9 +6888,9 @@
       <c r="G83" s="60"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="92"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="59" t="s">
         <v>69</v>
       </c>
@@ -6964,9 +6899,9 @@
       <c r="G84" s="60"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="92"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="59" t="s">
         <v>70</v>
       </c>
@@ -6975,9 +6910,9 @@
       <c r="G85" s="60"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="77"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="59" t="s">
         <v>71</v>
       </c>
@@ -6986,11 +6921,11 @@
       <c r="G86" s="60"/>
     </row>
     <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="74" t="s">
+      <c r="A87" s="98"/>
+      <c r="B87" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="76" t="s">
+      <c r="C87" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D87" s="59" t="s">
@@ -7001,9 +6936,9 @@
       <c r="G87" s="60"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="92"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="105"/>
       <c r="D88" s="59" t="s">
         <v>74</v>
       </c>
@@ -7012,9 +6947,9 @@
       <c r="G88" s="60"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="92"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="105"/>
       <c r="D89" s="59" t="s">
         <v>75</v>
       </c>
@@ -7023,9 +6958,9 @@
       <c r="G89" s="60"/>
     </row>
     <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A90" s="85"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="92"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="59" t="s">
         <v>76</v>
       </c>
@@ -7034,9 +6969,9 @@
       <c r="G90" s="60"/>
     </row>
     <row r="91" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="77"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="59" t="s">
         <v>77</v>
       </c>
@@ -7047,11 +6982,11 @@
       <c r="G91" s="60"/>
     </row>
     <row r="92" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="74" t="s">
+      <c r="A92" s="98"/>
+      <c r="B92" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="76" t="s">
+      <c r="C92" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="59" t="s">
@@ -7062,9 +6997,9 @@
       <c r="G92" s="60"/>
     </row>
     <row r="93" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="92"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
@@ -7073,9 +7008,9 @@
       <c r="G93" s="60"/>
     </row>
     <row r="94" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="77"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -7086,7 +7021,7 @@
       <c r="G94" s="60"/>
     </row>
     <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A95" s="87"/>
+      <c r="A95" s="99"/>
       <c r="B95" s="59" t="s">
         <v>83</v>
       </c>
@@ -7101,13 +7036,13 @@
       <c r="G95" s="60"/>
     </row>
     <row r="96" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="76" t="s">
+      <c r="C96" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D96" s="59" t="s">
@@ -7118,9 +7053,9 @@
       <c r="G96" s="60"/>
     </row>
     <row r="97" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="77"/>
+      <c r="A97" s="98"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="104"/>
       <c r="D97" s="59" t="s">
         <v>89</v>
       </c>
@@ -7129,7 +7064,7 @@
       <c r="G97" s="60"/>
     </row>
     <row r="98" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="85"/>
+      <c r="A98" s="98"/>
       <c r="B98" s="59" t="s">
         <v>90</v>
       </c>
@@ -7140,7 +7075,7 @@
       <c r="G98" s="60"/>
     </row>
     <row r="99" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="86"/>
+      <c r="A99" s="113"/>
       <c r="B99" s="63" t="s">
         <v>91</v>
       </c>
@@ -7169,15 +7104,15 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="67"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="76"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
@@ -7191,7 +7126,7 @@
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="84" t="s">
+      <c r="A104" s="97" t="s">
         <v>53</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -7204,33 +7139,33 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
+      <c r="A105" s="98"/>
       <c r="B105" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="108" t="s">
+      <c r="C105" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="D105" s="109"/>
+      <c r="D105" s="107"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="85"/>
+      <c r="A106" s="98"/>
       <c r="B106" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="108" t="s">
+      <c r="C106" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="D106" s="109"/>
+      <c r="D106" s="107"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="85"/>
+      <c r="A107" s="98"/>
       <c r="B107" s="9" t="s">
         <v>99</v>
       </c>
@@ -7241,7 +7176,7 @@
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="87"/>
+      <c r="A108" s="99"/>
       <c r="B108" s="9" t="s">
         <v>100</v>
       </c>
@@ -7252,7 +7187,7 @@
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="97" t="s">
         <v>101</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -7265,7 +7200,7 @@
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="9" t="s">
         <v>103</v>
       </c>
@@ -7276,7 +7211,7 @@
       <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="9" t="s">
         <v>104</v>
       </c>
@@ -7287,7 +7222,7 @@
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="84" t="s">
+      <c r="A112" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -7300,11 +7235,11 @@
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="81" t="s">
+      <c r="A113" s="98"/>
+      <c r="B113" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="81" t="s">
+      <c r="C113" s="94" t="s">
         <v>63</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -7315,9 +7250,9 @@
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="82"/>
+      <c r="A114" s="98"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="9" t="s">
         <v>108</v>
       </c>
@@ -7326,9 +7261,9 @@
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="82"/>
+      <c r="A115" s="98"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="59" t="s">
         <v>109</v>
       </c>
@@ -7337,9 +7272,9 @@
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
       <c r="D116" s="9" t="s">
         <v>110</v>
       </c>
@@ -7348,9 +7283,9 @@
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="95"/>
       <c r="D117" s="9" t="s">
         <v>111</v>
       </c>
@@ -7359,9 +7294,9 @@
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="85"/>
-      <c r="B118" s="82"/>
-      <c r="C118" s="83"/>
+      <c r="A118" s="98"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="9" t="s">
         <v>112</v>
       </c>
@@ -7370,9 +7305,9 @@
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="85"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="81" t="s">
+      <c r="A119" s="98"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="94" t="s">
         <v>66</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -7383,19 +7318,19 @@
       <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
+      <c r="A120" s="98"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="95"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="78" t="s">
+      <c r="A121" s="98"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="110" t="s">
         <v>196</v>
       </c>
       <c r="E121" s="25" t="s">
@@ -7407,10 +7342,10 @@
       <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="79"/>
+      <c r="A122" s="98"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="111"/>
       <c r="E122" s="25">
         <v>4</v>
       </c>
@@ -7420,10 +7355,10 @@
       <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="79"/>
+      <c r="A123" s="98"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="111"/>
       <c r="E123" s="25" t="s">
         <v>116</v>
       </c>
@@ -7433,10 +7368,10 @@
       <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="79"/>
+      <c r="A124" s="98"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="111"/>
       <c r="E124" s="25">
         <v>2</v>
       </c>
@@ -7446,10 +7381,10 @@
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="79"/>
+      <c r="A125" s="98"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="111"/>
       <c r="E125" s="25" t="s">
         <v>118</v>
       </c>
@@ -7459,10 +7394,10 @@
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="85"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="80"/>
+      <c r="A126" s="98"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="112"/>
       <c r="E126" s="25">
         <v>2</v>
       </c>
@@ -7472,10 +7407,10 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="85"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="78" t="s">
+      <c r="A127" s="98"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="95"/>
+      <c r="D127" s="110" t="s">
         <v>197</v>
       </c>
       <c r="E127" s="9" t="s">
@@ -7487,10 +7422,10 @@
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="85"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="79"/>
+      <c r="A128" s="98"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="95"/>
+      <c r="D128" s="111"/>
       <c r="E128" s="9" t="s">
         <v>121</v>
       </c>
@@ -7500,10 +7435,10 @@
       <c r="G128" s="11"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="85"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="79"/>
+      <c r="A129" s="98"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="95"/>
+      <c r="D129" s="111"/>
       <c r="E129" s="9" t="s">
         <v>123</v>
       </c>
@@ -7513,10 +7448,10 @@
       <c r="G129" s="11"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="85"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="79"/>
+      <c r="A130" s="98"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="111"/>
       <c r="E130" s="9" t="s">
         <v>125</v>
       </c>
@@ -7526,10 +7461,10 @@
       <c r="G130" s="11"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="79"/>
+      <c r="A131" s="98"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="111"/>
       <c r="E131" s="9" t="s">
         <v>127</v>
       </c>
@@ -7539,10 +7474,10 @@
       <c r="G131" s="11"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="85"/>
-      <c r="B132" s="83"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="80"/>
+      <c r="A132" s="98"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="112"/>
       <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
@@ -7552,11 +7487,11 @@
       <c r="G132" s="11"/>
     </row>
     <row r="133" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
-      <c r="B133" s="81" t="s">
+      <c r="A133" s="98"/>
+      <c r="B133" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="81" t="s">
+      <c r="C133" s="94" t="s">
         <v>66</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -7567,9 +7502,9 @@
       <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="85"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="82"/>
+      <c r="A134" s="98"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="95"/>
       <c r="D134" s="9" t="s">
         <v>80</v>
       </c>
@@ -7578,9 +7513,9 @@
       <c r="G134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="85"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="95"/>
       <c r="D135" s="9" t="s">
         <v>132</v>
       </c>
@@ -7589,9 +7524,9 @@
       <c r="G135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="85"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="82"/>
+      <c r="A136" s="98"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="95"/>
       <c r="D136" s="9" t="s">
         <v>133</v>
       </c>
@@ -7600,9 +7535,9 @@
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="85"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="82"/>
+      <c r="A137" s="98"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="95"/>
       <c r="D137" s="9" t="s">
         <v>134</v>
       </c>
@@ -7611,9 +7546,9 @@
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="87"/>
-      <c r="B138" s="83"/>
-      <c r="C138" s="83"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="96"/>
+      <c r="C138" s="96"/>
       <c r="D138" s="9" t="s">
         <v>135</v>
       </c>
@@ -7622,7 +7557,7 @@
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B139" s="57" t="s">
@@ -7635,7 +7570,7 @@
       <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="85"/>
+      <c r="A140" s="98"/>
       <c r="B140" s="9" t="s">
         <v>136</v>
       </c>
@@ -7646,18 +7581,18 @@
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="85"/>
-      <c r="B141" s="113" t="s">
+      <c r="A141" s="98"/>
+      <c r="B141" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="111"/>
-      <c r="D141" s="111"/>
-      <c r="E141" s="111"/>
-      <c r="F141" s="111"/>
-      <c r="G141" s="112"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="67"/>
     </row>
     <row r="142" spans="1:7" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="86"/>
+      <c r="A142" s="113"/>
       <c r="B142" s="52" t="s">
         <v>211</v>
       </c>
@@ -7677,15 +7612,15 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="67"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="75"/>
+      <c r="F144" s="75"/>
+      <c r="G144" s="76"/>
     </row>
     <row r="145" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
@@ -7784,36 +7719,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B113:B132"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="C119:C132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A79:A95"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:F25"/>
@@ -7830,6 +7735,36 @@
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A138"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A79:A95"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -8569,15 +8504,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:colOff>1022350</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
+                <xdr:rowOff>139700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1727200</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1987550</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>508000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9069,15 +9004,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>44450</xdr:colOff>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>97</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1974850</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1987550</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>1066800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9304,7 +9239,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="114" t="s">
         <v>150</v>
       </c>
       <c r="B4" t="s">
@@ -9316,14 +9251,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="3" t="s">
         <v>153</v>
       </c>

--- a/origin_files/regression.xlsx
+++ b/origin_files/regression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitHub\StatisticsBlog\origin_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei8\Desktop\git\StatisticsBlog\origin_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="回归分析" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="215">
   <si>
     <t>假设：</t>
   </si>
@@ -870,11 +870,15 @@
     <t>有特征根接近0，说明存在多重共线性</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>模型形式3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1516,6 +1520,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,24 +1538,99 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,97 +1652,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -1722,13 +1726,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>527050</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>831850</xdr:rowOff>
+          <xdr:rowOff>828675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1770,7 +1774,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -1818,7 +1822,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1870,11 +1874,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1517650</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -1920,15 +1924,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1816100</xdr:colOff>
+          <xdr:colOff>1819275</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>622300</xdr:rowOff>
+          <xdr:rowOff>619125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1972,13 +1976,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1250950</xdr:colOff>
+          <xdr:colOff>1247775</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -2030,9 +2034,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1746250</xdr:colOff>
+          <xdr:colOff>1743075</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>1384300</xdr:rowOff>
+          <xdr:rowOff>1381125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2082,9 +2086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1746250</xdr:colOff>
+          <xdr:colOff>1743075</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>1308100</xdr:rowOff>
+          <xdr:rowOff>1304925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2134,9 +2138,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1873250</xdr:colOff>
+          <xdr:colOff>1876425</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>863600</xdr:rowOff>
+          <xdr:rowOff>866775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2182,13 +2186,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>654050</xdr:rowOff>
+          <xdr:rowOff>657225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2232,15 +2236,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2286,13 +2290,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2338,13 +2342,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
+          <xdr:colOff>809625</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3606,15 +3610,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>82550</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>488950</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>1035050</xdr:rowOff>
+          <xdr:rowOff>1038225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3658,15 +3662,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>977900</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>349250</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3712,11 +3716,11 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:colOff>885825</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>552450</xdr:rowOff>
         </xdr:to>
@@ -3814,15 +3818,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>222250</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1943100</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>1016000</xdr:rowOff>
+          <xdr:rowOff>1019175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3868,13 +3872,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3920,13 +3924,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1606550</xdr:colOff>
+          <xdr:colOff>1609725</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>406400</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3970,13 +3974,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1689100</xdr:colOff>
+          <xdr:colOff>1685925</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>495300</xdr:rowOff>
         </xdr:to>
@@ -4022,13 +4026,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>603250</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1454150</xdr:colOff>
+          <xdr:colOff>1457325</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -4080,9 +4084,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1003300</xdr:colOff>
+          <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>539750</xdr:rowOff>
+          <xdr:rowOff>542925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4126,15 +4130,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>927100</xdr:colOff>
+          <xdr:colOff>923925</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>844550</xdr:rowOff>
+          <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4180,13 +4184,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1568450</xdr:colOff>
+          <xdr:colOff>1571625</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>387350</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4230,7 +4234,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
@@ -4284,13 +4288,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>673100</xdr:rowOff>
+          <xdr:rowOff>676275</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4334,7 +4338,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1111250</xdr:colOff>
+          <xdr:colOff>1114425</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -4386,15 +4390,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1022350</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1987550</xdr:colOff>
+          <xdr:colOff>1990725</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>510653</xdr:rowOff>
+          <xdr:rowOff>504825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4438,13 +4442,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>904875</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -4490,15 +4494,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>717550</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>92</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1835150</xdr:colOff>
+          <xdr:colOff>1838325</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4542,15 +4546,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>965200</xdr:colOff>
+          <xdr:colOff>962025</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2139950</xdr:colOff>
+          <xdr:colOff>2143125</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4594,13 +4598,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1073150</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>96</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4646,13 +4650,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>97</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4700,11 +4704,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>113</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1289050</xdr:colOff>
+          <xdr:colOff>1285875</xdr:colOff>
           <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4750,15 +4754,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>730250</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4802,9 +4806,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>234950</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>119</xdr:row>
-          <xdr:rowOff>120650</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -4860,7 +4864,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2165350</xdr:colOff>
+          <xdr:colOff>2162175</xdr:colOff>
           <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4906,13 +4910,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>133</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1873250</xdr:colOff>
+          <xdr:colOff>1876425</xdr:colOff>
           <xdr:row>133</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -4958,15 +4962,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>984250</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>135</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>135</xdr:row>
-          <xdr:rowOff>292100</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5010,15 +5014,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>349250</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>136</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5062,13 +5066,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>144</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1022350</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>144</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -5116,13 +5120,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1397000</xdr:colOff>
+          <xdr:colOff>1400175</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>469900</xdr:rowOff>
+          <xdr:rowOff>466725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5168,13 +5172,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>927100</xdr:colOff>
+          <xdr:colOff>923925</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>349250</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5218,13 +5222,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1377950</xdr:colOff>
+          <xdr:colOff>1381125</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -5272,11 +5276,11 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>2139950</xdr:colOff>
+          <xdr:colOff>2143125</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:to>
@@ -5322,13 +5326,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1555750</xdr:colOff>
+          <xdr:colOff>1552575</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
@@ -5374,15 +5378,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
+          <xdr:colOff>809625</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>641350</xdr:rowOff>
+          <xdr:rowOff>638175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5428,11 +5432,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1987550</xdr:colOff>
+          <xdr:colOff>1990725</xdr:colOff>
           <xdr:row>97</xdr:row>
           <xdr:rowOff>1066800</xdr:rowOff>
         </xdr:to>
@@ -5478,13 +5482,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>141</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>546100</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5535,7 +5539,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -5587,9 +5591,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -5641,13 +5645,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5949,30 +5953,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -5983,7 +5987,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
         <v>158</v>
@@ -5992,7 +5996,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="15" t="s">
         <v>159</v>
@@ -6001,7 +6005,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
         <v>160</v>
@@ -6010,7 +6014,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
         <v>161</v>
@@ -6019,24 +6023,24 @@
       <c r="D6" s="14"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A9" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
@@ -6051,8 +6055,8 @@
       </c>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -6068,8 +6072,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="110"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
@@ -6079,8 +6083,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="116.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="110" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="14"/>
@@ -6090,8 +6094,8 @@
       <c r="D13" s="14"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="110"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6099,8 +6103,8 @@
       <c r="D14" s="14"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+    <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="110" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -6110,8 +6114,8 @@
       <c r="D15" s="14"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="110"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>15</v>
@@ -6119,8 +6123,8 @@
       <c r="D16" s="14"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="110"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>16</v>
@@ -6130,7 +6134,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="72.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
@@ -6139,17 +6143,17 @@
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+    <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+      <c r="A20" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +6162,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
@@ -6167,25 +6171,27 @@
       <c r="D22" s="14"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+    <row r="24" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+      <c r="A25" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-    </row>
-    <row r="26" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
@@ -6195,7 +6201,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -6205,7 +6211,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
@@ -6215,7 +6221,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
@@ -6227,7 +6233,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6237,7 +6243,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6245,17 +6251,17 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="s">
+    <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-    </row>
-    <row r="33" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>201</v>
       </c>
@@ -6265,7 +6271,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>202</v>
       </c>
@@ -6275,7 +6281,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>203</v>
       </c>
@@ -6285,7 +6291,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>207</v>
       </c>
@@ -6295,7 +6301,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -6303,7 +6309,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6312,20 +6318,20 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A39" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
-    </row>
-    <row r="40" spans="1:9" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="109"/>
+    </row>
+    <row r="40" spans="1:9" ht="74.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="40"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -6336,7 +6342,7 @@
       <c r="H40" s="37"/>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>170</v>
       </c>
@@ -6359,8 +6365,8 @@
       <c r="H41" s="37"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" ht="56" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
+    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="111" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -6378,8 +6384,8 @@
       <c r="H42" s="37"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+    <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="112"/>
       <c r="B43" s="37" t="s">
         <v>163</v>
       </c>
@@ -6393,8 +6399,8 @@
       <c r="H43" s="37"/>
       <c r="I43" s="38"/>
     </row>
-    <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
+    <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="113"/>
       <c r="B44" s="37" t="s">
         <v>208</v>
       </c>
@@ -6406,7 +6412,7 @@
       <c r="H44" s="37"/>
       <c r="I44" s="38"/>
     </row>
-    <row r="45" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="58" t="s">
         <v>206</v>
       </c>
@@ -6421,7 +6427,7 @@
       <c r="H45" s="37"/>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:9" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
         <v>205</v>
       </c>
@@ -6440,8 +6446,8 @@
       <c r="H46" s="37"/>
       <c r="I46" s="38"/>
     </row>
-    <row r="47" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+    <row r="47" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="77" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="42" t="s">
@@ -6457,8 +6463,8 @@
       <c r="H47" s="37"/>
       <c r="I47" s="38"/>
     </row>
-    <row r="48" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
+    <row r="48" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="77"/>
       <c r="B48" s="42" t="s">
         <v>167</v>
       </c>
@@ -6470,8 +6476,8 @@
       <c r="H48" s="37"/>
       <c r="I48" s="38"/>
     </row>
-    <row r="49" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
+    <row r="49" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="77" t="s">
         <v>169</v>
       </c>
       <c r="B49" s="44" t="s">
@@ -6487,8 +6493,8 @@
       <c r="H49" s="37"/>
       <c r="I49" s="38"/>
     </row>
-    <row r="50" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
+    <row r="50" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="77"/>
       <c r="B50" s="44" t="s">
         <v>173</v>
       </c>
@@ -6502,8 +6508,8 @@
       <c r="H50" s="37"/>
       <c r="I50" s="38"/>
     </row>
-    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
+    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="77"/>
       <c r="B51" s="44" t="s">
         <v>177</v>
       </c>
@@ -6519,8 +6525,8 @@
       <c r="H51" s="37"/>
       <c r="I51" s="38"/>
     </row>
-    <row r="52" spans="1:9" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
       <c r="B52" s="45" t="s">
         <v>179</v>
       </c>
@@ -6534,20 +6540,20 @@
       <c r="H52" s="47"/>
       <c r="I52" s="49"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:9" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
+    <row r="53" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.15">
+      <c r="A54" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="76"/>
-    </row>
-    <row r="55" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
+    </row>
+    <row r="55" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6559,8 +6565,8 @@
       <c r="F55" s="9"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+    <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="102"/>
       <c r="B56" s="9" t="s">
         <v>36</v>
       </c>
@@ -6570,8 +6576,8 @@
       <c r="F56" s="9"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
+    <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="100" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -6583,8 +6589,8 @@
       <c r="F57" s="9"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="101"/>
       <c r="B58" s="53" t="s">
         <v>39</v>
       </c>
@@ -6594,8 +6600,8 @@
       <c r="F58" s="9"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
+    <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="101"/>
       <c r="B59" s="54" t="s">
         <v>40</v>
       </c>
@@ -6605,8 +6611,8 @@
       <c r="F59" s="9"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
+    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="102"/>
       <c r="B60" s="54" t="s">
         <v>41</v>
       </c>
@@ -6616,7 +6622,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>42</v>
       </c>
@@ -6631,7 +6637,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="69"/>
       <c r="B62" s="23" t="s">
         <v>212</v>
@@ -6644,8 +6650,8 @@
       <c r="F62" s="9"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="54" t="s">
@@ -6657,8 +6663,8 @@
       <c r="F63" s="9"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+    <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="101"/>
       <c r="B64" s="54" t="s">
         <v>47</v>
       </c>
@@ -6668,8 +6674,8 @@
       <c r="F64" s="9"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="101"/>
       <c r="B65" s="54" t="s">
         <v>48</v>
       </c>
@@ -6679,8 +6685,8 @@
       <c r="F65" s="9"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="175.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+    <row r="66" spans="1:7" ht="165.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="102"/>
       <c r="B66" s="55" t="s">
         <v>149</v>
       </c>
@@ -6690,8 +6696,8 @@
       <c r="F66" s="9"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
+    <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="100" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="54" t="s">
@@ -6703,8 +6709,8 @@
       <c r="F67" s="9"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+    <row r="68" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="101"/>
       <c r="B68" s="54" t="s">
         <v>50</v>
       </c>
@@ -6714,8 +6720,8 @@
       <c r="F68" s="9"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="87"/>
+    <row r="69" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="103"/>
       <c r="B69" s="56" t="s">
         <v>51</v>
       </c>
@@ -6725,19 +6731,19 @@
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="88" t="s">
+    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A71" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="90"/>
-    </row>
-    <row r="72" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="106"/>
+    </row>
+    <row r="72" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
         <v>164</v>
       </c>
@@ -6750,8 +6756,8 @@
       <c r="F72" s="9"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91" t="s">
+    <row r="73" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="93" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -6763,8 +6769,8 @@
       <c r="F73" s="9"/>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="92"/>
+    <row r="74" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="94"/>
       <c r="B74" s="59" t="s">
         <v>55</v>
       </c>
@@ -6776,8 +6782,8 @@
       <c r="F74" s="59"/>
       <c r="G74" s="60"/>
     </row>
-    <row r="75" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="93"/>
+    <row r="75" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="95"/>
       <c r="B75" s="59" t="s">
         <v>57</v>
       </c>
@@ -6789,8 +6795,8 @@
       <c r="F75" s="59"/>
       <c r="G75" s="60"/>
     </row>
-    <row r="76" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91" t="s">
+    <row r="76" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="93" t="s">
         <v>156</v>
       </c>
       <c r="B76" s="59" t="s">
@@ -6802,8 +6808,8 @@
       <c r="F76" s="59"/>
       <c r="G76" s="60"/>
     </row>
-    <row r="77" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="92"/>
+    <row r="77" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="94"/>
       <c r="B77" s="59" t="s">
         <v>60</v>
       </c>
@@ -6813,8 +6819,8 @@
       <c r="F77" s="59"/>
       <c r="G77" s="60"/>
     </row>
-    <row r="78" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="93"/>
+    <row r="78" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="95"/>
       <c r="B78" s="61" t="s">
         <v>199</v>
       </c>
@@ -6824,8 +6830,8 @@
       <c r="F78" s="59"/>
       <c r="G78" s="60"/>
     </row>
-    <row r="79" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="97" t="s">
+    <row r="79" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="89" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="59" t="s">
@@ -6837,12 +6843,12 @@
       <c r="F79" s="59"/>
       <c r="G79" s="60"/>
     </row>
-    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
-      <c r="B80" s="100" t="s">
+    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="90"/>
+      <c r="B80" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="103" t="s">
+      <c r="C80" s="81" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="59" t="s">
@@ -6852,10 +6858,10 @@
       <c r="F80" s="59"/>
       <c r="G80" s="60"/>
     </row>
-    <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
-      <c r="B81" s="101"/>
-      <c r="C81" s="104"/>
+    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="90"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="59" t="s">
         <v>65</v>
       </c>
@@ -6863,10 +6869,10 @@
       <c r="F81" s="59"/>
       <c r="G81" s="60"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="103" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="90"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="81" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="59" t="s">
@@ -6876,10 +6882,10 @@
       <c r="F82" s="59"/>
       <c r="G82" s="60"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
-      <c r="B83" s="101"/>
-      <c r="C83" s="105"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="90"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="59" t="s">
         <v>68</v>
       </c>
@@ -6887,10 +6893,10 @@
       <c r="F83" s="59"/>
       <c r="G83" s="60"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="98"/>
-      <c r="B84" s="101"/>
-      <c r="C84" s="105"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="90"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="97"/>
       <c r="D84" s="59" t="s">
         <v>69</v>
       </c>
@@ -6898,10 +6904,10 @@
       <c r="F84" s="59"/>
       <c r="G84" s="60"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
-      <c r="B85" s="101"/>
-      <c r="C85" s="105"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="90"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="59" t="s">
         <v>70</v>
       </c>
@@ -6909,10 +6915,10 @@
       <c r="F85" s="59"/>
       <c r="G85" s="60"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="98"/>
-      <c r="B86" s="102"/>
-      <c r="C86" s="104"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="90"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="82"/>
       <c r="D86" s="59" t="s">
         <v>71</v>
       </c>
@@ -6920,12 +6926,12 @@
       <c r="F86" s="59"/>
       <c r="G86" s="60"/>
     </row>
-    <row r="87" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="98"/>
-      <c r="B87" s="100" t="s">
+    <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="90"/>
+      <c r="B87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="103" t="s">
+      <c r="C87" s="81" t="s">
         <v>66</v>
       </c>
       <c r="D87" s="59" t="s">
@@ -6935,10 +6941,10 @@
       <c r="F87" s="59"/>
       <c r="G87" s="60"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
-      <c r="B88" s="101"/>
-      <c r="C88" s="105"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="90"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="59" t="s">
         <v>74</v>
       </c>
@@ -6946,10 +6952,10 @@
       <c r="F88" s="59"/>
       <c r="G88" s="60"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
-      <c r="B89" s="101"/>
-      <c r="C89" s="105"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="90"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="59" t="s">
         <v>75</v>
       </c>
@@ -6957,10 +6963,10 @@
       <c r="F89" s="59"/>
       <c r="G89" s="60"/>
     </row>
-    <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="101"/>
-      <c r="C90" s="105"/>
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="90"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="59" t="s">
         <v>76</v>
       </c>
@@ -6968,10 +6974,10 @@
       <c r="F90" s="59"/>
       <c r="G90" s="60"/>
     </row>
-    <row r="91" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="104"/>
+    <row r="91" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="90"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="59" t="s">
         <v>77</v>
       </c>
@@ -6981,12 +6987,12 @@
       <c r="F91" s="59"/>
       <c r="G91" s="60"/>
     </row>
-    <row r="92" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
-      <c r="B92" s="100" t="s">
+    <row r="92" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="90"/>
+      <c r="B92" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="103" t="s">
+      <c r="C92" s="81" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="59" t="s">
@@ -6996,10 +7002,10 @@
       <c r="F92" s="59"/>
       <c r="G92" s="60"/>
     </row>
-    <row r="93" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="101"/>
-      <c r="C93" s="105"/>
+    <row r="93" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="90"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="97"/>
       <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
@@ -7007,10 +7013,10 @@
       <c r="F93" s="59"/>
       <c r="G93" s="60"/>
     </row>
-    <row r="94" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="98"/>
-      <c r="B94" s="102"/>
-      <c r="C94" s="104"/>
+    <row r="94" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="90"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -7020,8 +7026,8 @@
       <c r="F94" s="59"/>
       <c r="G94" s="60"/>
     </row>
-    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A95" s="99"/>
+    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A95" s="92"/>
       <c r="B95" s="59" t="s">
         <v>83</v>
       </c>
@@ -7035,14 +7041,14 @@
       <c r="F95" s="59"/>
       <c r="G95" s="60"/>
     </row>
-    <row r="96" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="97" t="s">
+    <row r="96" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="100" t="s">
+      <c r="B96" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="103" t="s">
+      <c r="C96" s="81" t="s">
         <v>66</v>
       </c>
       <c r="D96" s="59" t="s">
@@ -7052,10 +7058,10 @@
       <c r="F96" s="59"/>
       <c r="G96" s="60"/>
     </row>
-    <row r="97" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="104"/>
+    <row r="97" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="90"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="82"/>
       <c r="D97" s="59" t="s">
         <v>89</v>
       </c>
@@ -7063,8 +7069,8 @@
       <c r="F97" s="59"/>
       <c r="G97" s="60"/>
     </row>
-    <row r="98" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
+    <row r="98" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="90"/>
       <c r="B98" s="59" t="s">
         <v>90</v>
       </c>
@@ -7074,8 +7080,8 @@
       <c r="F98" s="59"/>
       <c r="G98" s="60"/>
     </row>
-    <row r="99" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="113"/>
+    <row r="99" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="91"/>
       <c r="B99" s="63" t="s">
         <v>91</v>
       </c>
@@ -7085,7 +7091,7 @@
       <c r="F99" s="63"/>
       <c r="G99" s="64"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7094,7 +7100,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -7103,18 +7109,18 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="74" t="s">
+    <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A102" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="75"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="76"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="72"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>93</v>
       </c>
@@ -7125,8 +7131,8 @@
       <c r="F103" s="9"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="97" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="89" t="s">
         <v>53</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -7138,34 +7144,34 @@
       <c r="F104" s="9"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="98"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="90"/>
       <c r="B105" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="106" t="s">
+      <c r="C105" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D105" s="107"/>
+      <c r="D105" s="99"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="98"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="90"/>
       <c r="B106" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="106" t="s">
+      <c r="C106" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="D106" s="107"/>
+      <c r="D106" s="99"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="98"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="90"/>
       <c r="B107" s="9" t="s">
         <v>99</v>
       </c>
@@ -7175,8 +7181,8 @@
       <c r="F107" s="9"/>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="99"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="92"/>
       <c r="B108" s="9" t="s">
         <v>100</v>
       </c>
@@ -7186,8 +7192,8 @@
       <c r="F108" s="9"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="97" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -7199,8 +7205,8 @@
       <c r="F109" s="9"/>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="90"/>
       <c r="B110" s="9" t="s">
         <v>103</v>
       </c>
@@ -7210,8 +7216,8 @@
       <c r="F110" s="9"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="99"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" s="92"/>
       <c r="B111" s="9" t="s">
         <v>104</v>
       </c>
@@ -7221,8 +7227,8 @@
       <c r="F111" s="9"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="97" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="89" t="s">
         <v>42</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -7234,12 +7240,12 @@
       <c r="F112" s="9"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
-      <c r="B113" s="94" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="90"/>
+      <c r="B113" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="94" t="s">
+      <c r="C113" s="86" t="s">
         <v>63</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -7249,10 +7255,10 @@
       <c r="F113" s="9"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="98"/>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95"/>
+    <row r="114" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="90"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="87"/>
       <c r="D114" s="9" t="s">
         <v>108</v>
       </c>
@@ -7260,10 +7266,10 @@
       <c r="F114" s="9"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="98"/>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95"/>
+    <row r="115" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="90"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="87"/>
       <c r="D115" s="59" t="s">
         <v>109</v>
       </c>
@@ -7271,10 +7277,10 @@
       <c r="F115" s="9"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="98"/>
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
+    <row r="116" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="90"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="87"/>
       <c r="D116" s="9" t="s">
         <v>110</v>
       </c>
@@ -7282,10 +7288,10 @@
       <c r="F116" s="9"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="98"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="90"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="87"/>
       <c r="D117" s="9" t="s">
         <v>111</v>
       </c>
@@ -7293,10 +7299,10 @@
       <c r="F117" s="9"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="98"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="96"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="90"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="88"/>
       <c r="D118" s="9" t="s">
         <v>112</v>
       </c>
@@ -7304,10 +7310,10 @@
       <c r="F118" s="9"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="98"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="94" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="86" t="s">
         <v>66</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -7317,20 +7323,20 @@
       <c r="F119" s="9"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
-      <c r="B120" s="95"/>
-      <c r="C120" s="95"/>
+    <row r="120" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="90"/>
+      <c r="B120" s="87"/>
+      <c r="C120" s="87"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="98"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="110" t="s">
+    <row r="121" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="83" t="s">
         <v>196</v>
       </c>
       <c r="E121" s="25" t="s">
@@ -7341,11 +7347,11 @@
       </c>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="98"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="95"/>
-      <c r="D122" s="111"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="90"/>
+      <c r="B122" s="87"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="84"/>
       <c r="E122" s="25">
         <v>4</v>
       </c>
@@ -7354,11 +7360,11 @@
       </c>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="98"/>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="111"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="90"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="84"/>
       <c r="E123" s="25" t="s">
         <v>116</v>
       </c>
@@ -7367,11 +7373,11 @@
       </c>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="98"/>
-      <c r="B124" s="95"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="111"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="90"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="87"/>
+      <c r="D124" s="84"/>
       <c r="E124" s="25">
         <v>2</v>
       </c>
@@ -7380,11 +7386,11 @@
       </c>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="98"/>
-      <c r="B125" s="95"/>
-      <c r="C125" s="95"/>
-      <c r="D125" s="111"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="90"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="87"/>
+      <c r="D125" s="84"/>
       <c r="E125" s="25" t="s">
         <v>118</v>
       </c>
@@ -7393,11 +7399,11 @@
       </c>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="98"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="112"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="90"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="87"/>
+      <c r="D126" s="85"/>
       <c r="E126" s="25">
         <v>2</v>
       </c>
@@ -7406,11 +7412,11 @@
       </c>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="98"/>
-      <c r="B127" s="95"/>
-      <c r="C127" s="95"/>
-      <c r="D127" s="110" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="90"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="87"/>
+      <c r="D127" s="83" t="s">
         <v>197</v>
       </c>
       <c r="E127" s="9" t="s">
@@ -7421,11 +7427,11 @@
       </c>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="98"/>
-      <c r="B128" s="95"/>
-      <c r="C128" s="95"/>
-      <c r="D128" s="111"/>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="90"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="9" t="s">
         <v>121</v>
       </c>
@@ -7434,11 +7440,11 @@
       </c>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="98"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="95"/>
-      <c r="D129" s="111"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="90"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="84"/>
       <c r="E129" s="9" t="s">
         <v>123</v>
       </c>
@@ -7447,11 +7453,11 @@
       </c>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="98"/>
-      <c r="B130" s="95"/>
-      <c r="C130" s="95"/>
-      <c r="D130" s="111"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="90"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="87"/>
+      <c r="D130" s="84"/>
       <c r="E130" s="9" t="s">
         <v>125</v>
       </c>
@@ -7460,11 +7466,11 @@
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="98"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="95"/>
-      <c r="D131" s="111"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="90"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="84"/>
       <c r="E131" s="9" t="s">
         <v>127</v>
       </c>
@@ -7473,11 +7479,11 @@
       </c>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="98"/>
-      <c r="B132" s="96"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="112"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="90"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="85"/>
       <c r="E132" s="9" t="s">
         <v>128</v>
       </c>
@@ -7486,12 +7492,12 @@
       </c>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="98"/>
-      <c r="B133" s="94" t="s">
+    <row r="133" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="90"/>
+      <c r="B133" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="94" t="s">
+      <c r="C133" s="86" t="s">
         <v>66</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -7501,10 +7507,10 @@
       <c r="F133" s="9"/>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="98"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="95"/>
+    <row r="134" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="90"/>
+      <c r="B134" s="87"/>
+      <c r="C134" s="87"/>
       <c r="D134" s="9" t="s">
         <v>80</v>
       </c>
@@ -7512,10 +7518,10 @@
       <c r="F134" s="9"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="98"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
+    <row r="135" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="90"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="87"/>
       <c r="D135" s="9" t="s">
         <v>132</v>
       </c>
@@ -7523,10 +7529,10 @@
       <c r="F135" s="9"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="98"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="95"/>
+    <row r="136" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="90"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="87"/>
       <c r="D136" s="9" t="s">
         <v>133</v>
       </c>
@@ -7534,10 +7540,10 @@
       <c r="F136" s="9"/>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="98"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="95"/>
+    <row r="137" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="90"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="87"/>
       <c r="D137" s="9" t="s">
         <v>134</v>
       </c>
@@ -7545,10 +7551,10 @@
       <c r="F137" s="9"/>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="99"/>
-      <c r="B138" s="96"/>
-      <c r="C138" s="96"/>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="92"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="88"/>
       <c r="D138" s="9" t="s">
         <v>135</v>
       </c>
@@ -7556,8 +7562,8 @@
       <c r="F138" s="9"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="97" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" s="89" t="s">
         <v>86</v>
       </c>
       <c r="B139" s="57" t="s">
@@ -7569,8 +7575,8 @@
       <c r="F139" s="9"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="98"/>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="90"/>
       <c r="B140" s="9" t="s">
         <v>136</v>
       </c>
@@ -7580,8 +7586,8 @@
       <c r="F140" s="9"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="98"/>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="90"/>
       <c r="B141" s="68" t="s">
         <v>210</v>
       </c>
@@ -7591,8 +7597,8 @@
       <c r="F141" s="66"/>
       <c r="G141" s="67"/>
     </row>
-    <row r="142" spans="1:7" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="113"/>
+    <row r="142" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="91"/>
       <c r="B142" s="52" t="s">
         <v>211</v>
       </c>
@@ -7602,7 +7608,7 @@
       <c r="F142" s="12"/>
       <c r="G142" s="13"/>
     </row>
-    <row r="143" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7611,18 +7617,18 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" ht="50.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="74" t="s">
+    <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A144" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B144" s="75"/>
-      <c r="C144" s="75"/>
-      <c r="D144" s="75"/>
-      <c r="E144" s="75"/>
-      <c r="F144" s="75"/>
-      <c r="G144" s="76"/>
-    </row>
-    <row r="145" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="72"/>
+    </row>
+    <row r="145" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="27" t="s">
         <v>164</v>
       </c>
@@ -7633,7 +7639,7 @@
       <c r="F145" s="9"/>
       <c r="G145" s="11"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="27" t="s">
         <v>183</v>
       </c>
@@ -7648,7 +7654,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="11"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
       <c r="B147" s="23" t="s">
         <v>188</v>
@@ -7661,7 +7667,7 @@
       <c r="F147" s="9"/>
       <c r="G147" s="11"/>
     </row>
-    <row r="148" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="35"/>
       <c r="B148" s="12"/>
       <c r="C148" s="52" t="s">
@@ -7672,7 +7678,7 @@
       <c r="F148" s="12"/>
       <c r="G148" s="13"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="8"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -7681,7 +7687,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="8"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -7690,7 +7696,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="8"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -7699,7 +7705,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="8"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -7708,7 +7714,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="8"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -7719,6 +7725,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A79:A95"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:F25"/>
@@ -7735,36 +7771,6 @@
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A138"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B113:B132"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="C119:C132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A79:A95"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7806,13 +7812,13 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>527050</xdr:rowOff>
+                <xdr:rowOff>523875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>990600</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>831850</xdr:rowOff>
+                <xdr:rowOff>828675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7835,7 +7841,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
@@ -7856,7 +7862,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
@@ -7881,11 +7887,11 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1517650</xdr:colOff>
+                <xdr:colOff>1514475</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>304800</xdr:rowOff>
               </to>
@@ -7904,15 +7910,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1816100</xdr:colOff>
+                <xdr:colOff>1819275</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>622300</xdr:rowOff>
+                <xdr:rowOff>619125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7929,13 +7935,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1250950</xdr:colOff>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>247650</xdr:rowOff>
               </to>
@@ -7960,9 +7966,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1746250</xdr:colOff>
+                <xdr:colOff>1743075</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>1384300</xdr:rowOff>
+                <xdr:rowOff>1381125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7985,9 +7991,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1746250</xdr:colOff>
+                <xdr:colOff>1743075</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>1308100</xdr:rowOff>
+                <xdr:rowOff>1304925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8010,9 +8016,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1873250</xdr:colOff>
+                <xdr:colOff>1876425</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>863600</xdr:rowOff>
+                <xdr:rowOff>866775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8031,13 +8037,13 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>260350</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>952500</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>654050</xdr:rowOff>
+                <xdr:rowOff>657225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8054,15 +8060,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>260350</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8081,13 +8087,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>679450</xdr:colOff>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8106,13 +8112,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>812800</xdr:colOff>
+                <xdr:colOff>809625</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8129,15 +8135,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>82550</xdr:colOff>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>488950</xdr:colOff>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>1035050</xdr:rowOff>
+                <xdr:rowOff>1038225</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8154,15 +8160,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>215900</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>977900</xdr:colOff>
+                <xdr:colOff>981075</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>349250</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8181,11 +8187,11 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>889000</xdr:colOff>
+                <xdr:colOff>885825</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>552450</xdr:rowOff>
               </to>
@@ -8229,15 +8235,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>222250</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1943100</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>1016000</xdr:rowOff>
+                <xdr:rowOff>1019175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8256,13 +8262,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>393700</xdr:rowOff>
+                <xdr:rowOff>390525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8281,13 +8287,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>762000</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>196850</xdr:rowOff>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1606550</xdr:colOff>
+                <xdr:colOff>1609725</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>406400</xdr:rowOff>
+                <xdr:rowOff>409575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8304,13 +8310,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>196850</xdr:colOff>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1689100</xdr:colOff>
+                <xdr:colOff>1685925</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>495300</xdr:rowOff>
               </to>
@@ -8329,13 +8335,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>603250</xdr:colOff>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1454150</xdr:colOff>
+                <xdr:colOff>1457325</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
@@ -8360,9 +8366,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1003300</xdr:colOff>
+                <xdr:colOff>1000125</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>539750</xdr:rowOff>
+                <xdr:rowOff>542925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8379,15 +8385,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>927100</xdr:colOff>
+                <xdr:colOff>923925</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>844550</xdr:rowOff>
+                <xdr:rowOff>847725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8406,13 +8412,13 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>42</xdr:row>
-                <xdr:rowOff>184150</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1568450</xdr:colOff>
+                <xdr:colOff>1571625</xdr:colOff>
                 <xdr:row>43</xdr:row>
-                <xdr:rowOff>387350</xdr:rowOff>
+                <xdr:rowOff>390525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8429,7 +8435,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>44450</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
@@ -8456,13 +8462,13 @@
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>673100</xdr:rowOff>
+                <xdr:rowOff>676275</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>431800</xdr:colOff>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8479,7 +8485,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1111250</xdr:colOff>
+                <xdr:colOff>1114425</xdr:colOff>
                 <xdr:row>86</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </from>
@@ -8504,15 +8510,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1022350</xdr:colOff>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1987550</xdr:colOff>
+                <xdr:colOff>1990725</xdr:colOff>
                 <xdr:row>90</xdr:row>
-                <xdr:rowOff>508000</xdr:rowOff>
+                <xdr:rowOff>504825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8529,13 +8535,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>908050</xdr:colOff>
+                <xdr:colOff>904875</xdr:colOff>
                 <xdr:row>91</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>91</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -8554,15 +8560,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>717550</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>92</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1835150</xdr:colOff>
+                <xdr:colOff>1838325</xdr:colOff>
                 <xdr:row>92</xdr:row>
-                <xdr:rowOff>317500</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8579,15 +8585,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>965200</xdr:colOff>
+                <xdr:colOff>962025</xdr:colOff>
                 <xdr:row>93</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2139950</xdr:colOff>
+                <xdr:colOff>2143125</xdr:colOff>
                 <xdr:row>93</xdr:row>
-                <xdr:rowOff>260350</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8604,13 +8610,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>88900</xdr:colOff>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>95</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1073150</xdr:colOff>
+                <xdr:colOff>1076325</xdr:colOff>
                 <xdr:row>96</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8629,13 +8635,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>69850</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>96</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>679450</xdr:colOff>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8656,11 +8662,11 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>113</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1289050</xdr:colOff>
+                <xdr:colOff>1285875</xdr:colOff>
                 <xdr:row>114</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8679,15 +8685,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>730250</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>115</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>298450</xdr:colOff>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>115</xdr:row>
-                <xdr:rowOff>355600</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8704,9 +8710,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>234950</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>119</xdr:row>
-                <xdr:rowOff>120650</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
@@ -8735,7 +8741,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2165350</xdr:colOff>
+                <xdr:colOff>2162175</xdr:colOff>
                 <xdr:row>133</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8754,13 +8760,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>133</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1873250</xdr:colOff>
+                <xdr:colOff>1876425</xdr:colOff>
                 <xdr:row>133</xdr:row>
                 <xdr:rowOff>304800</xdr:rowOff>
               </to>
@@ -8779,15 +8785,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>984250</xdr:colOff>
+                <xdr:colOff>981075</xdr:colOff>
                 <xdr:row>135</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>431800</xdr:colOff>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>135</xdr:row>
-                <xdr:rowOff>292100</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8804,15 +8810,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>349250</xdr:colOff>
+                <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>136</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>136</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8829,13 +8835,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>144</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1022350</xdr:colOff>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>144</xdr:row>
                 <xdr:rowOff>285750</xdr:rowOff>
               </to>
@@ -8856,13 +8862,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>222250</xdr:rowOff>
+                <xdr:rowOff>219075</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1397000</xdr:colOff>
+                <xdr:colOff>1400175</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>469900</xdr:rowOff>
+                <xdr:rowOff>466725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8881,13 +8887,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>927100</xdr:colOff>
+                <xdr:colOff>923925</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>349250</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8904,13 +8910,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1377950</xdr:colOff>
+                <xdr:colOff>1381125</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -8931,11 +8937,11 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>184150</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>2139950</xdr:colOff>
+                <xdr:colOff>2143125</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>419100</xdr:rowOff>
               </to>
@@ -8954,13 +8960,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>69850</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1555750</xdr:colOff>
+                <xdr:colOff>1552575</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>571500</xdr:rowOff>
               </to>
@@ -8979,15 +8985,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>69850</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>812800</xdr:colOff>
+                <xdr:colOff>809625</xdr:colOff>
                 <xdr:row>43</xdr:row>
-                <xdr:rowOff>641350</xdr:rowOff>
+                <xdr:rowOff>638175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9006,11 +9012,11 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>97</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1987550</xdr:colOff>
+                <xdr:colOff>1990725</xdr:colOff>
                 <xdr:row>97</xdr:row>
                 <xdr:rowOff>1066800</xdr:rowOff>
               </to>
@@ -9029,13 +9035,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>141</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>546100</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>142</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -9059,13 +9065,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -9092,12 +9098,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>143</v>
       </c>
@@ -9105,7 +9111,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>145</v>
       </c>
@@ -9113,7 +9119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -9121,10 +9127,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
     </row>
   </sheetData>
@@ -9140,7 +9146,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>107950</xdr:colOff>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </from>
@@ -9165,9 +9171,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
@@ -9192,13 +9198,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>260350</xdr:rowOff>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9220,14 +9226,14 @@
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>151</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="114" t="s">
         <v>150</v>
       </c>
@@ -9250,14 +9256,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="114"/>
       <c r="B5" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="114"/>
       <c r="B6" s="3" t="s">
         <v>153</v>
@@ -9266,10 +9272,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
     </row>
   </sheetData>

--- a/origin_files/regression.xlsx
+++ b/origin_files/regression.xlsx
@@ -322,9 +322,6 @@
     <t>补救</t>
   </si>
   <si>
-    <t>1、变换模型</t>
-  </si>
-  <si>
     <t>1、求异方差表达式</t>
   </si>
   <si>
@@ -872,6 +869,10 @@
   </si>
   <si>
     <t>模型形式3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、方差齐性变换</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1520,6 +1521,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,36 +1542,105 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,88 +1650,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5953,8 +5954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5968,20 +5969,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="A1" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -5990,7 +5991,7 @@
     <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -5999,7 +6000,7 @@
     <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -6008,7 +6009,7 @@
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -6017,7 +6018,7 @@
     <row r="6" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -6032,13 +6033,13 @@
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.15">
-      <c r="A9" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="A9" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
@@ -6056,7 +6057,7 @@
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -6073,7 +6074,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="110"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
@@ -6084,7 +6085,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="116.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="82" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="14"/>
@@ -6095,7 +6096,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="110"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -6104,7 +6105,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -6115,7 +6116,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="110"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
         <v>15</v>
@@ -6124,14 +6125,14 @@
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="72.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6145,13 +6146,13 @@
     </row>
     <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
@@ -6173,7 +6174,7 @@
     </row>
     <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6182,14 +6183,14 @@
     </row>
     <row r="24" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
+      <c r="A25" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
     </row>
     <row r="26" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
@@ -6252,18 +6253,18 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="A32" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
     </row>
     <row r="33" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -6273,7 +6274,7 @@
     </row>
     <row r="34" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -6283,7 +6284,7 @@
     </row>
     <row r="35" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -6293,7 +6294,7 @@
     </row>
     <row r="36" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -6319,17 +6320,17 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.15">
-      <c r="A39" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
+      <c r="A39" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" ht="74.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="40"/>
@@ -6344,10 +6345,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>171</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>3</v>
@@ -6366,11 +6367,11 @@
       <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A42" s="111" t="s">
-        <v>172</v>
+      <c r="A42" s="83" t="s">
+        <v>171</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -6385,9 +6386,9 @@
       <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="112"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -6400,9 +6401,9 @@
       <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="113"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -6414,10 +6415,10 @@
     </row>
     <row r="45" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -6429,7 +6430,7 @@
     </row>
     <row r="46" spans="1:9" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>9</v>
@@ -6447,16 +6448,16 @@
       <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="77" t="s">
-        <v>168</v>
+      <c r="A47" s="73" t="s">
+        <v>167</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
       <c r="E47" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -6464,9 +6465,9 @@
       <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="77"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="37"/>
@@ -6477,14 +6478,14 @@
       <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="77" t="s">
-        <v>169</v>
+      <c r="A49" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="B49" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>174</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="41"/>
@@ -6494,12 +6495,12 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="77"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="41"/>
@@ -6509,15 +6510,15 @@
       <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="77"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="50" t="s">
         <v>177</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>178</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="41"/>
@@ -6526,12 +6527,12 @@
       <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="46" t="s">
         <v>179</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>180</v>
       </c>
       <c r="D52" s="47"/>
       <c r="E52" s="48"/>
@@ -6542,18 +6543,18 @@
     </row>
     <row r="53" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.15">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="72"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
     </row>
     <row r="55" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="100" t="s">
+      <c r="A55" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6566,7 +6567,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="102"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="9" t="s">
         <v>36</v>
       </c>
@@ -6577,7 +6578,7 @@
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="77" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -6590,7 +6591,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="101"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="53" t="s">
         <v>39</v>
       </c>
@@ -6601,7 +6602,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="101"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="54" t="s">
         <v>40</v>
       </c>
@@ -6612,7 +6613,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="102"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="54" t="s">
         <v>41</v>
       </c>
@@ -6640,10 +6641,10 @@
     <row r="62" spans="1:9" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="69"/>
       <c r="B62" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="54" t="s">
         <v>212</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>213</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="9"/>
@@ -6651,7 +6652,7 @@
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="100" t="s">
+      <c r="A63" s="77" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="54" t="s">
@@ -6664,7 +6665,7 @@
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="101"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="54" t="s">
         <v>47</v>
       </c>
@@ -6675,7 +6676,7 @@
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="101"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="54" t="s">
         <v>48</v>
       </c>
@@ -6686,9 +6687,9 @@
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="165.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="102"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -6697,8 +6698,8 @@
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="100" t="s">
-        <v>148</v>
+      <c r="A67" s="77" t="s">
+        <v>147</v>
       </c>
       <c r="B67" s="54" t="s">
         <v>49</v>
@@ -6710,7 +6711,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="101"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="54" t="s">
         <v>50</v>
       </c>
@@ -6721,7 +6722,7 @@
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="103"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="56" t="s">
         <v>51</v>
       </c>
@@ -6733,22 +6734,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.15">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="105"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="106"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
     </row>
     <row r="72" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -6757,7 +6758,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="91" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -6770,7 +6771,7 @@
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="94"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="59" t="s">
         <v>55</v>
       </c>
@@ -6783,7 +6784,7 @@
       <c r="G74" s="60"/>
     </row>
     <row r="75" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="95"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="59" t="s">
         <v>57</v>
       </c>
@@ -6796,8 +6797,8 @@
       <c r="G75" s="60"/>
     </row>
     <row r="76" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="93" t="s">
-        <v>156</v>
+      <c r="A76" s="91" t="s">
+        <v>155</v>
       </c>
       <c r="B76" s="59" t="s">
         <v>59</v>
@@ -6809,7 +6810,7 @@
       <c r="G76" s="60"/>
     </row>
     <row r="77" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="94"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="59" t="s">
         <v>60</v>
       </c>
@@ -6820,9 +6821,9 @@
       <c r="G77" s="60"/>
     </row>
     <row r="78" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="95"/>
+      <c r="A78" s="93"/>
       <c r="B78" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -6831,7 +6832,7 @@
       <c r="G78" s="60"/>
     </row>
     <row r="79" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="59" t="s">
@@ -6844,11 +6845,11 @@
       <c r="G79" s="60"/>
     </row>
     <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="90"/>
-      <c r="B80" s="79" t="s">
+      <c r="A80" s="98"/>
+      <c r="B80" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="C80" s="103" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="59" t="s">
@@ -6859,9 +6860,9 @@
       <c r="G80" s="60"/>
     </row>
     <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="90"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="82"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="104"/>
       <c r="D81" s="59" t="s">
         <v>65</v>
       </c>
@@ -6870,9 +6871,9 @@
       <c r="G81" s="60"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="81" t="s">
+      <c r="A82" s="98"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="59" t="s">
@@ -6883,9 +6884,9 @@
       <c r="G82" s="60"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="97"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="105"/>
       <c r="D83" s="59" t="s">
         <v>68</v>
       </c>
@@ -6894,9 +6895,9 @@
       <c r="G83" s="60"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="90"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="97"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="105"/>
       <c r="D84" s="59" t="s">
         <v>69</v>
       </c>
@@ -6905,9 +6906,9 @@
       <c r="G84" s="60"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="97"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="105"/>
       <c r="D85" s="59" t="s">
         <v>70</v>
       </c>
@@ -6916,9 +6917,9 @@
       <c r="G85" s="60"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="82"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="59" t="s">
         <v>71</v>
       </c>
@@ -6927,11 +6928,11 @@
       <c r="G86" s="60"/>
     </row>
     <row r="87" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="90"/>
-      <c r="B87" s="79" t="s">
+      <c r="A87" s="98"/>
+      <c r="B87" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D87" s="59" t="s">
@@ -6942,9 +6943,9 @@
       <c r="G87" s="60"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="90"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="97"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="105"/>
       <c r="D88" s="59" t="s">
         <v>74</v>
       </c>
@@ -6953,9 +6954,9 @@
       <c r="G88" s="60"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="90"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="97"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="105"/>
       <c r="D89" s="59" t="s">
         <v>75</v>
       </c>
@@ -6964,9 +6965,9 @@
       <c r="G89" s="60"/>
     </row>
     <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="90"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="97"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="105"/>
       <c r="D90" s="59" t="s">
         <v>76</v>
       </c>
@@ -6975,24 +6976,24 @@
       <c r="G90" s="60"/>
     </row>
     <row r="91" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="90"/>
-      <c r="B91" s="80"/>
-      <c r="C91" s="82"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="59" t="s">
         <v>77</v>
       </c>
       <c r="E91" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" s="59"/>
       <c r="G91" s="60"/>
     </row>
     <row r="92" spans="1:7" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="90"/>
-      <c r="B92" s="79" t="s">
+      <c r="A92" s="98"/>
+      <c r="B92" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="81" t="s">
+      <c r="C92" s="103" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="59" t="s">
@@ -7003,9 +7004,9 @@
       <c r="G92" s="60"/>
     </row>
     <row r="93" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="90"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="97"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="105"/>
       <c r="D93" s="59" t="s">
         <v>80</v>
       </c>
@@ -7014,9 +7015,9 @@
       <c r="G93" s="60"/>
     </row>
     <row r="94" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="90"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="82"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="59" t="s">
         <v>81</v>
       </c>
@@ -7027,7 +7028,7 @@
       <c r="G94" s="60"/>
     </row>
     <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A95" s="92"/>
+      <c r="A95" s="99"/>
       <c r="B95" s="59" t="s">
         <v>83</v>
       </c>
@@ -7042,37 +7043,37 @@
       <c r="G95" s="60"/>
     </row>
     <row r="96" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="59" t="s">
         <v>87</v>
-      </c>
-      <c r="C96" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" s="59" t="s">
-        <v>88</v>
       </c>
       <c r="E96" s="59"/>
       <c r="F96" s="59"/>
       <c r="G96" s="60"/>
     </row>
     <row r="97" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="90"/>
-      <c r="B97" s="80"/>
-      <c r="C97" s="82"/>
+      <c r="A97" s="98"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="104"/>
       <c r="D97" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
       <c r="G97" s="60"/>
     </row>
     <row r="98" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="90"/>
+      <c r="A98" s="98"/>
       <c r="B98" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -7081,9 +7082,9 @@
       <c r="G98" s="60"/>
     </row>
     <row r="99" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="91"/>
+      <c r="A99" s="113"/>
       <c r="B99" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
@@ -7110,19 +7111,19 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.15">
-      <c r="A102" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="72"/>
+      <c r="A102" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="76"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -7132,11 +7133,11 @@
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="89" t="s">
+      <c r="A104" s="97" t="s">
         <v>53</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -7145,35 +7146,35 @@
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="90"/>
+      <c r="A105" s="98"/>
       <c r="B105" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D105" s="99"/>
+      <c r="D105" s="107"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="90"/>
+      <c r="A106" s="98"/>
       <c r="B106" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="99"/>
+      <c r="D106" s="107"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="90"/>
+      <c r="A107" s="98"/>
       <c r="B107" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -7182,9 +7183,9 @@
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="92"/>
+      <c r="A108" s="99"/>
       <c r="B108" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -7193,11 +7194,11 @@
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -7206,9 +7207,9 @@
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="90"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -7217,9 +7218,9 @@
       <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="92"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -7228,11 +7229,11 @@
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="89" t="s">
+      <c r="A112" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -7241,117 +7242,117 @@
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="90"/>
-      <c r="B113" s="86" t="s">
+      <c r="A113" s="98"/>
+      <c r="B113" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C113" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="90"/>
-      <c r="B114" s="87"/>
-      <c r="C114" s="87"/>
+      <c r="A114" s="98"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="90"/>
-      <c r="B115" s="87"/>
-      <c r="C115" s="87"/>
+      <c r="A115" s="98"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="90"/>
-      <c r="B116" s="87"/>
-      <c r="C116" s="87"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
       <c r="D116" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="90"/>
-      <c r="B117" s="87"/>
-      <c r="C117" s="87"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="95"/>
       <c r="D117" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="90"/>
-      <c r="B118" s="87"/>
-      <c r="C118" s="88"/>
+      <c r="A118" s="98"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="90"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="86" t="s">
+      <c r="A119" s="98"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="94" t="s">
         <v>66</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" ht="86.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="90"/>
-      <c r="B120" s="87"/>
-      <c r="C120" s="87"/>
+      <c r="A120" s="98"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="95"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A121" s="90"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="83" t="s">
-        <v>196</v>
+      <c r="A121" s="98"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="110" t="s">
+        <v>195</v>
       </c>
       <c r="E121" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F121" s="26" t="s">
-        <v>115</v>
-      </c>
       <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="90"/>
-      <c r="B122" s="87"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="84"/>
+      <c r="A122" s="98"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="111"/>
       <c r="E122" s="25">
         <v>4</v>
       </c>
@@ -7361,23 +7362,23 @@
       <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="90"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="84"/>
+      <c r="A123" s="98"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="111"/>
       <c r="E123" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F123" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="90"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="84"/>
+      <c r="A124" s="98"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="111"/>
       <c r="E124" s="25">
         <v>2</v>
       </c>
@@ -7387,23 +7388,23 @@
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="90"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="87"/>
-      <c r="D125" s="84"/>
+      <c r="A125" s="98"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="111"/>
       <c r="E125" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F125" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="90"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="87"/>
-      <c r="D126" s="85"/>
+      <c r="A126" s="98"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="112"/>
       <c r="E126" s="25">
         <v>2</v>
       </c>
@@ -7413,104 +7414,104 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="90"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="87"/>
-      <c r="D127" s="83" t="s">
-        <v>197</v>
+      <c r="A127" s="98"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="95"/>
+      <c r="D127" s="110" t="s">
+        <v>196</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F127" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="98"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="95"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G127" s="11"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="90"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="87"/>
-      <c r="D128" s="84"/>
-      <c r="E128" s="9" t="s">
+      <c r="F128" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="98"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="95"/>
+      <c r="D129" s="111"/>
+      <c r="E129" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="90"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="87"/>
-      <c r="D129" s="84"/>
-      <c r="E129" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="11"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="98"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G129" s="11"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="90"/>
-      <c r="B130" s="87"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="84"/>
-      <c r="E130" s="9" t="s">
+      <c r="F130" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="G130" s="11"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="98"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G130" s="11"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="90"/>
-      <c r="B131" s="87"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="84"/>
-      <c r="E131" s="9" t="s">
+      <c r="F131" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="98"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="112"/>
+      <c r="E132" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F131" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G131" s="11"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="90"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="9" t="s">
+      <c r="F132" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="98"/>
+      <c r="B133" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="G132" s="11"/>
-    </row>
-    <row r="133" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="90"/>
-      <c r="B133" s="86" t="s">
+      <c r="C133" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C133" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="90"/>
-      <c r="B134" s="87"/>
-      <c r="C134" s="87"/>
+      <c r="A134" s="98"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="95"/>
       <c r="D134" s="9" t="s">
         <v>80</v>
       </c>
@@ -7519,55 +7520,55 @@
       <c r="G134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="90"/>
-      <c r="B135" s="87"/>
-      <c r="C135" s="87"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="95"/>
       <c r="D135" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="90"/>
-      <c r="B136" s="87"/>
-      <c r="C136" s="87"/>
+      <c r="A136" s="98"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="95"/>
       <c r="D136" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="90"/>
-      <c r="B137" s="87"/>
-      <c r="C137" s="87"/>
+      <c r="A137" s="98"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="95"/>
       <c r="D137" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="92"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="88"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="96"/>
+      <c r="C138" s="96"/>
       <c r="D138" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="89" t="s">
+      <c r="A139" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B139" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -7576,9 +7577,9 @@
       <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="90"/>
+      <c r="A140" s="98"/>
       <c r="B140" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -7587,9 +7588,9 @@
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="90"/>
+      <c r="A141" s="98"/>
       <c r="B141" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C141" s="66"/>
       <c r="D141" s="66"/>
@@ -7598,9 +7599,9 @@
       <c r="G141" s="67"/>
     </row>
     <row r="142" spans="1:7" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="91"/>
+      <c r="A142" s="113"/>
       <c r="B142" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -7618,19 +7619,19 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.15">
-      <c r="A144" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="72"/>
+      <c r="A144" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="75"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="75"/>
+      <c r="F144" s="75"/>
+      <c r="G144" s="76"/>
     </row>
     <row r="145" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -7641,13 +7642,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -7657,10 +7658,10 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
       <c r="B147" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -7671,7 +7672,7 @@
       <c r="A148" s="35"/>
       <c r="B148" s="12"/>
       <c r="C148" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
@@ -7725,36 +7726,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B113:B132"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="C119:C132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A79:A95"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:F25"/>
@@ -7771,6 +7742,36 @@
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A138"/>
     <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B113:B132"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A79:A95"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -9073,13 +9074,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -9087,7 +9088,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -9095,28 +9096,28 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9124,7 +9125,7 @@
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9235,41 +9236,41 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
         <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="114"/>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="114"/>
       <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
